--- a/sum_of_incidents_per_city_pivot_table.xlsx
+++ b/sum_of_incidents_per_city_pivot_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ADF2"/>
+  <dimension ref="A1:ADG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6294 +434,6299 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Abingdon</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Addison</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Akin</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Albion</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Aledo</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Alexis</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Algonquin</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Allendale</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Alsip</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Altamont</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Alton</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Amboy</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Anna</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Annawan</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Antioch</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Arcola</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Argenta</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Arlington Heights</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Armstrong</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Arthur</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Ashkum</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Ashland</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Ashley</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Ashmore</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Ashton</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Assumption</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Astoria</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Athens</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Atwood</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Auburn</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Augusta</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Aurora</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Aviston</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Avon</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Barrington</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Barry</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Bartlett</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Bartonville</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Batavia</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Beach Park</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Beardstown</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Bedford Park</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Beecher</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Beecher City</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Belleville</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Bellwood</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Belvidere</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Bement</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Bensenville</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Benson</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Benton</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Berkeley</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Berwyn</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Bethalto</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Bethany</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Big Rock</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>Biggsville</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>Bismarck</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Bloomingdale</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Bloomington</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Blue Island</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Blue Mound</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>Bluffs</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Bluford</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Bolingbrook</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>Bourbonnais</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Bowen</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>Braceville</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>Bradley</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>Braidwood</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>Breese</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>Bridgeport</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>Bridgeview</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>Brighton</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>Brimfield</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>Bristol</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>Broadlands</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>Broadview</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>Brookfield</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>Brookport</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>Brownstown</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>Brussels</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>Buffalo</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>Buffalo Grove</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>Bunker Hill</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>Burbank</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>Burlington</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>Burr Ridge</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>Bushnell</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>Byron</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>Cahokia</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>Cairo</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>Caledonia</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>Calumet City</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>Calumet Park</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>Cambridge</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>Camp Point</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>Campbell Hill</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>Canton</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>Cantrall</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>Capron</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>Carbondale</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>Carlinville</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>Carlock</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>Carlyle</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>Carmi</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>Carol Stream</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>Carpentersville</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>Carrier Mills</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>Carrollton</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>Carterville</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>Carthage</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>Cary</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>Casey</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>Caseyville</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>Catlin</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>Centralia</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>Centreville</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>Cerro Gordo</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>Champaign</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>Chandlerville</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>Channahon</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>Charleston</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>Chatham</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>Chatsworth</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>Chebanse</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>Chenoa</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>Chester</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>Chicago</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>Chicago Heights</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>Chicago Hts</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>Chicago Ridge</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>Chillicothe</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>Chrisman</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>Christopher</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>Cicero</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>Cisne</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>Cissna Park</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>Clarendon Hills</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>Clay City</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>Clifton</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>Clinton</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>Coal City</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>Coal Valley</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>Colchester</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>Colfax</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>Collinsville</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>Colona</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>Columbia</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>Concord</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>Cortland</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>Coulterville</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>Country Club Hills</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>Countryside</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>Cowden</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>Crescent City</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>Crest Hill</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>Creston</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>Crestwood</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>Crete</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>Creve Coeur</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>Crystal Lake</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>Cuba</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>Cullom</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>Dahlgren</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>Dakota</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>Dallas City</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>Danvers</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>Danville</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>Darien</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>De Kalb</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>De Land</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>De Soto</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>DeKalb</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>DePue</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>Decatur</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>Deer Creek</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>Deerfield</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>Dekalb</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>Delavan</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>Des Plaines</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>Dieterich</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>Divernon</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>Dix</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>Dixmoor</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>Dixon</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>Dolton</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>Dongola</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>Donovan</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>Downers Grove</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>Downs</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>Du Quoin</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>Dundee</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>Dunlap</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>Dupo</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>Durand</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>Dwight</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>E Saint Louis</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>Earlville</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>East Alton</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>East Dubuque</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="GV1" s="1" t="inlineStr">
         <is>
           <t>East Moline</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>East Peoria</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>East Saint Louis</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>Edwardsville</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>Effingham</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>El Paso</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>Eldorado</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>Elgin</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>Elizabethtown</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>Elk Grove Village</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>Elk Grove Vlg</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>Elkville</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>Elmhurst</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>Elmwood</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>Elmwood Park</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>Erie</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>Eureka</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>Evanston</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>Evergreen Park</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>Ewing</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>Fairbury</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>Fairfield</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>Fairview Heights</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>Farina</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>Farmer City</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>Farmersville</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>Farmington</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>Findlay</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>Fisher</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>Fithian</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>Flanagan</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>Flora</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>Flossmoor</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>Ford Heights</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>Forest Park</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>Forrest</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>Forreston</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>Forsyth</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>Fox Lake</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>Fox River Grove</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>Frankfort</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>Franklin</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>Franklin Grove</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>Franklin Park</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>Freeburg</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>Freeport</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>Fulton</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>Gages Lake</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>Galatia</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>Galena</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>Galesburg</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>Galva</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>Gardner</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>Geneseo</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>Geneva</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>Genoa</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>Georgetown</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>German Valley</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>Germantown</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>Germantown Hills</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>Gibson City</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>Gifford</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>Gilberts</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>Gillespie</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>Gilman</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>Girard</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>Glasford</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>Glen Carbon</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>Glen Ellyn</t>
         </is>
       </c>
-      <c r="JL1" s="1" t="inlineStr">
+      <c r="JM1" s="1" t="inlineStr">
         <is>
           <t>Glencoe</t>
         </is>
       </c>
-      <c r="JM1" s="1" t="inlineStr">
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>Glendale Heights</t>
         </is>
       </c>
-      <c r="JN1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>Glenview</t>
         </is>
       </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="JP1" s="1" t="inlineStr">
         <is>
           <t>Godfrey</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>Golconda</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>Good Hope</t>
         </is>
       </c>
-      <c r="JR1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
         <is>
           <t>Goodfield</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>Grafton</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="JU1" s="1" t="inlineStr">
         <is>
           <t>Grand Ridge</t>
         </is>
       </c>
-      <c r="JU1" s="1" t="inlineStr">
+      <c r="JV1" s="1" t="inlineStr">
         <is>
           <t>Granite City</t>
         </is>
       </c>
-      <c r="JV1" s="1" t="inlineStr">
+      <c r="JW1" s="1" t="inlineStr">
         <is>
           <t>Grant Park</t>
         </is>
       </c>
-      <c r="JW1" s="1" t="inlineStr">
+      <c r="JX1" s="1" t="inlineStr">
         <is>
           <t>Granville</t>
         </is>
       </c>
-      <c r="JX1" s="1" t="inlineStr">
+      <c r="JY1" s="1" t="inlineStr">
         <is>
           <t>Grayslake</t>
         </is>
       </c>
-      <c r="JY1" s="1" t="inlineStr">
+      <c r="JZ1" s="1" t="inlineStr">
         <is>
           <t>Grayville</t>
         </is>
       </c>
-      <c r="JZ1" s="1" t="inlineStr">
+      <c r="KA1" s="1" t="inlineStr">
         <is>
           <t>Great Lakes</t>
         </is>
       </c>
-      <c r="KA1" s="1" t="inlineStr">
+      <c r="KB1" s="1" t="inlineStr">
         <is>
           <t>Green Valley</t>
         </is>
       </c>
-      <c r="KB1" s="1" t="inlineStr">
+      <c r="KC1" s="1" t="inlineStr">
         <is>
           <t>Greenfield</t>
         </is>
       </c>
-      <c r="KC1" s="1" t="inlineStr">
+      <c r="KD1" s="1" t="inlineStr">
         <is>
           <t>Greenview</t>
         </is>
       </c>
-      <c r="KD1" s="1" t="inlineStr">
+      <c r="KE1" s="1" t="inlineStr">
         <is>
           <t>Greenville</t>
         </is>
       </c>
-      <c r="KE1" s="1" t="inlineStr">
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>Gridley</t>
         </is>
       </c>
-      <c r="KF1" s="1" t="inlineStr">
+      <c r="KG1" s="1" t="inlineStr">
         <is>
           <t>Griggsville</t>
         </is>
       </c>
-      <c r="KG1" s="1" t="inlineStr">
+      <c r="KH1" s="1" t="inlineStr">
         <is>
           <t>Gurnee</t>
         </is>
       </c>
-      <c r="KH1" s="1" t="inlineStr">
+      <c r="KI1" s="1" t="inlineStr">
         <is>
           <t>Hamel</t>
         </is>
       </c>
-      <c r="KI1" s="1" t="inlineStr">
+      <c r="KJ1" s="1" t="inlineStr">
         <is>
           <t>Hamilton</t>
         </is>
       </c>
-      <c r="KJ1" s="1" t="inlineStr">
+      <c r="KK1" s="1" t="inlineStr">
         <is>
           <t>Hampshire</t>
         </is>
       </c>
-      <c r="KK1" s="1" t="inlineStr">
+      <c r="KL1" s="1" t="inlineStr">
         <is>
           <t>Hampton</t>
         </is>
       </c>
-      <c r="KL1" s="1" t="inlineStr">
+      <c r="KM1" s="1" t="inlineStr">
         <is>
           <t>Hanover</t>
         </is>
       </c>
-      <c r="KM1" s="1" t="inlineStr">
+      <c r="KN1" s="1" t="inlineStr">
         <is>
           <t>Hanover Park</t>
         </is>
       </c>
-      <c r="KN1" s="1" t="inlineStr">
+      <c r="KO1" s="1" t="inlineStr">
         <is>
           <t>Hardin</t>
         </is>
       </c>
-      <c r="KO1" s="1" t="inlineStr">
+      <c r="KP1" s="1" t="inlineStr">
         <is>
           <t>Harrisburg</t>
         </is>
       </c>
-      <c r="KP1" s="1" t="inlineStr">
+      <c r="KQ1" s="1" t="inlineStr">
         <is>
           <t>Harristown</t>
         </is>
       </c>
-      <c r="KQ1" s="1" t="inlineStr">
+      <c r="KR1" s="1" t="inlineStr">
         <is>
           <t>Hartford</t>
         </is>
       </c>
-      <c r="KR1" s="1" t="inlineStr">
+      <c r="KS1" s="1" t="inlineStr">
         <is>
           <t>Harvard</t>
         </is>
       </c>
-      <c r="KS1" s="1" t="inlineStr">
+      <c r="KT1" s="1" t="inlineStr">
         <is>
           <t>Harvey</t>
         </is>
       </c>
-      <c r="KT1" s="1" t="inlineStr">
+      <c r="KU1" s="1" t="inlineStr">
         <is>
           <t>Harwood Heights</t>
         </is>
       </c>
-      <c r="KU1" s="1" t="inlineStr">
+      <c r="KV1" s="1" t="inlineStr">
         <is>
           <t>Havana</t>
         </is>
       </c>
-      <c r="KV1" s="1" t="inlineStr">
+      <c r="KW1" s="1" t="inlineStr">
         <is>
           <t>Hawthorn Woods</t>
         </is>
       </c>
-      <c r="KW1" s="1" t="inlineStr">
+      <c r="KX1" s="1" t="inlineStr">
         <is>
           <t>Hazel Crest</t>
         </is>
       </c>
-      <c r="KX1" s="1" t="inlineStr">
+      <c r="KY1" s="1" t="inlineStr">
         <is>
           <t>Hebron</t>
         </is>
       </c>
-      <c r="KY1" s="1" t="inlineStr">
+      <c r="KZ1" s="1" t="inlineStr">
         <is>
           <t>Hennepin</t>
         </is>
       </c>
-      <c r="KZ1" s="1" t="inlineStr">
+      <c r="LA1" s="1" t="inlineStr">
         <is>
           <t>Henry</t>
         </is>
       </c>
-      <c r="LA1" s="1" t="inlineStr">
+      <c r="LB1" s="1" t="inlineStr">
         <is>
           <t>Herrick</t>
         </is>
       </c>
-      <c r="LB1" s="1" t="inlineStr">
+      <c r="LC1" s="1" t="inlineStr">
         <is>
           <t>Herrin</t>
         </is>
       </c>
-      <c r="LC1" s="1" t="inlineStr">
+      <c r="LD1" s="1" t="inlineStr">
         <is>
           <t>Herscher</t>
         </is>
       </c>
-      <c r="LD1" s="1" t="inlineStr">
+      <c r="LE1" s="1" t="inlineStr">
         <is>
           <t>Heyworth</t>
         </is>
       </c>
-      <c r="LE1" s="1" t="inlineStr">
+      <c r="LF1" s="1" t="inlineStr">
         <is>
           <t>Hickory Hills</t>
         </is>
       </c>
-      <c r="LF1" s="1" t="inlineStr">
+      <c r="LG1" s="1" t="inlineStr">
         <is>
           <t>Highland</t>
         </is>
       </c>
-      <c r="LG1" s="1" t="inlineStr">
+      <c r="LH1" s="1" t="inlineStr">
         <is>
           <t>Highland Park</t>
         </is>
       </c>
-      <c r="LH1" s="1" t="inlineStr">
+      <c r="LI1" s="1" t="inlineStr">
         <is>
           <t>Highwood</t>
         </is>
       </c>
-      <c r="LI1" s="1" t="inlineStr">
+      <c r="LJ1" s="1" t="inlineStr">
         <is>
           <t>Hillsboro</t>
         </is>
       </c>
-      <c r="LJ1" s="1" t="inlineStr">
+      <c r="LK1" s="1" t="inlineStr">
         <is>
           <t>Hillside</t>
         </is>
       </c>
-      <c r="LK1" s="1" t="inlineStr">
+      <c r="LL1" s="1" t="inlineStr">
         <is>
           <t>Hinckley</t>
         </is>
       </c>
-      <c r="LL1" s="1" t="inlineStr">
+      <c r="LM1" s="1" t="inlineStr">
         <is>
           <t>Hinsdale</t>
         </is>
       </c>
-      <c r="LM1" s="1" t="inlineStr">
+      <c r="LN1" s="1" t="inlineStr">
         <is>
           <t>Hodgkins</t>
         </is>
       </c>
-      <c r="LN1" s="1" t="inlineStr">
+      <c r="LO1" s="1" t="inlineStr">
         <is>
           <t>Hoffman Estates</t>
         </is>
       </c>
-      <c r="LO1" s="1" t="inlineStr">
+      <c r="LP1" s="1" t="inlineStr">
         <is>
           <t>Homer</t>
         </is>
       </c>
-      <c r="LP1" s="1" t="inlineStr">
+      <c r="LQ1" s="1" t="inlineStr">
         <is>
           <t>Homer Glen</t>
         </is>
       </c>
-      <c r="LQ1" s="1" t="inlineStr">
+      <c r="LR1" s="1" t="inlineStr">
         <is>
           <t>Hometown</t>
         </is>
       </c>
-      <c r="LR1" s="1" t="inlineStr">
+      <c r="LS1" s="1" t="inlineStr">
         <is>
           <t>Homewood</t>
         </is>
       </c>
-      <c r="LS1" s="1" t="inlineStr">
+      <c r="LT1" s="1" t="inlineStr">
         <is>
           <t>Hoopeston</t>
         </is>
       </c>
-      <c r="LT1" s="1" t="inlineStr">
+      <c r="LU1" s="1" t="inlineStr">
         <is>
           <t>Hopkins Park</t>
         </is>
       </c>
-      <c r="LU1" s="1" t="inlineStr">
+      <c r="LV1" s="1" t="inlineStr">
         <is>
           <t>Hudson</t>
         </is>
       </c>
-      <c r="LV1" s="1" t="inlineStr">
+      <c r="LW1" s="1" t="inlineStr">
         <is>
           <t>Hume</t>
         </is>
       </c>
-      <c r="LW1" s="1" t="inlineStr">
+      <c r="LX1" s="1" t="inlineStr">
         <is>
           <t>Huntley</t>
         </is>
       </c>
-      <c r="LX1" s="1" t="inlineStr">
+      <c r="LY1" s="1" t="inlineStr">
         <is>
           <t>Hutsonville</t>
         </is>
       </c>
-      <c r="LY1" s="1" t="inlineStr">
+      <c r="LZ1" s="1" t="inlineStr">
         <is>
           <t>Illiopolis</t>
         </is>
       </c>
-      <c r="LZ1" s="1" t="inlineStr">
+      <c r="MA1" s="1" t="inlineStr">
         <is>
           <t>Ina</t>
         </is>
       </c>
-      <c r="MA1" s="1" t="inlineStr">
+      <c r="MB1" s="1" t="inlineStr">
         <is>
           <t>Ingleside</t>
         </is>
       </c>
-      <c r="MB1" s="1" t="inlineStr">
+      <c r="MC1" s="1" t="inlineStr">
         <is>
           <t>Island Lake</t>
         </is>
       </c>
-      <c r="MC1" s="1" t="inlineStr">
+      <c r="MD1" s="1" t="inlineStr">
         <is>
           <t>Itasca</t>
         </is>
       </c>
-      <c r="MD1" s="1" t="inlineStr">
+      <c r="ME1" s="1" t="inlineStr">
         <is>
           <t>Iuka</t>
         </is>
       </c>
-      <c r="ME1" s="1" t="inlineStr">
+      <c r="MF1" s="1" t="inlineStr">
         <is>
           <t>Jacksonville</t>
         </is>
       </c>
-      <c r="MF1" s="1" t="inlineStr">
+      <c r="MG1" s="1" t="inlineStr">
         <is>
           <t>Jerseyville</t>
         </is>
       </c>
-      <c r="MG1" s="1" t="inlineStr">
+      <c r="MH1" s="1" t="inlineStr">
         <is>
           <t>Johnsburg</t>
         </is>
       </c>
-      <c r="MH1" s="1" t="inlineStr">
+      <c r="MI1" s="1" t="inlineStr">
         <is>
           <t>Johnston City</t>
         </is>
       </c>
-      <c r="MI1" s="1" t="inlineStr">
+      <c r="MJ1" s="1" t="inlineStr">
         <is>
           <t>Joliet</t>
         </is>
       </c>
-      <c r="MJ1" s="1" t="inlineStr">
+      <c r="MK1" s="1" t="inlineStr">
         <is>
           <t>Jonesboro</t>
         </is>
       </c>
-      <c r="MK1" s="1" t="inlineStr">
+      <c r="ML1" s="1" t="inlineStr">
         <is>
           <t>Joppa</t>
         </is>
       </c>
-      <c r="ML1" s="1" t="inlineStr">
+      <c r="MM1" s="1" t="inlineStr">
         <is>
           <t>Joy</t>
         </is>
       </c>
-      <c r="MM1" s="1" t="inlineStr">
+      <c r="MN1" s="1" t="inlineStr">
         <is>
           <t>Junction</t>
         </is>
       </c>
-      <c r="MN1" s="1" t="inlineStr">
+      <c r="MO1" s="1" t="inlineStr">
         <is>
           <t>Justice</t>
         </is>
       </c>
-      <c r="MO1" s="1" t="inlineStr">
+      <c r="MP1" s="1" t="inlineStr">
         <is>
           <t>Kankakee</t>
         </is>
       </c>
-      <c r="MP1" s="1" t="inlineStr">
+      <c r="MQ1" s="1" t="inlineStr">
         <is>
           <t>Kansas</t>
         </is>
       </c>
-      <c r="MQ1" s="1" t="inlineStr">
+      <c r="MR1" s="1" t="inlineStr">
         <is>
           <t>Kell</t>
         </is>
       </c>
-      <c r="MR1" s="1" t="inlineStr">
+      <c r="MS1" s="1" t="inlineStr">
         <is>
           <t>Kempton</t>
         </is>
       </c>
-      <c r="MS1" s="1" t="inlineStr">
+      <c r="MT1" s="1" t="inlineStr">
         <is>
           <t>Kenilworth</t>
         </is>
       </c>
-      <c r="MT1" s="1" t="inlineStr">
+      <c r="MU1" s="1" t="inlineStr">
         <is>
           <t>Kewanee</t>
         </is>
       </c>
-      <c r="MU1" s="1" t="inlineStr">
+      <c r="MV1" s="1" t="inlineStr">
         <is>
           <t>Kincaid</t>
         </is>
       </c>
-      <c r="MV1" s="1" t="inlineStr">
+      <c r="MW1" s="1" t="inlineStr">
         <is>
           <t>Kinderhook</t>
         </is>
       </c>
-      <c r="MW1" s="1" t="inlineStr">
+      <c r="MX1" s="1" t="inlineStr">
         <is>
           <t>Kings</t>
         </is>
       </c>
-      <c r="MX1" s="1" t="inlineStr">
+      <c r="MY1" s="1" t="inlineStr">
         <is>
           <t>Kingston</t>
         </is>
       </c>
-      <c r="MY1" s="1" t="inlineStr">
+      <c r="MZ1" s="1" t="inlineStr">
         <is>
           <t>Kinmundy</t>
         </is>
       </c>
-      <c r="MZ1" s="1" t="inlineStr">
+      <c r="NA1" s="1" t="inlineStr">
         <is>
           <t>Kirkland</t>
         </is>
       </c>
-      <c r="NA1" s="1" t="inlineStr">
+      <c r="NB1" s="1" t="inlineStr">
         <is>
           <t>Knoxville</t>
         </is>
       </c>
-      <c r="NB1" s="1" t="inlineStr">
+      <c r="NC1" s="1" t="inlineStr">
         <is>
           <t>La Grange</t>
         </is>
       </c>
-      <c r="NC1" s="1" t="inlineStr">
+      <c r="ND1" s="1" t="inlineStr">
         <is>
           <t>La Grange Highlands</t>
         </is>
       </c>
-      <c r="ND1" s="1" t="inlineStr">
+      <c r="NE1" s="1" t="inlineStr">
         <is>
           <t>La Grange Park</t>
         </is>
       </c>
-      <c r="NE1" s="1" t="inlineStr">
+      <c r="NF1" s="1" t="inlineStr">
         <is>
           <t>La Moille</t>
         </is>
       </c>
-      <c r="NF1" s="1" t="inlineStr">
+      <c r="NG1" s="1" t="inlineStr">
         <is>
           <t>La Salle</t>
         </is>
       </c>
-      <c r="NG1" s="1" t="inlineStr">
+      <c r="NH1" s="1" t="inlineStr">
         <is>
           <t>Lacon</t>
         </is>
       </c>
-      <c r="NH1" s="1" t="inlineStr">
+      <c r="NI1" s="1" t="inlineStr">
         <is>
           <t>Ladd</t>
         </is>
       </c>
-      <c r="NI1" s="1" t="inlineStr">
+      <c r="NJ1" s="1" t="inlineStr">
         <is>
           <t>Lake Bluff</t>
         </is>
       </c>
-      <c r="NJ1" s="1" t="inlineStr">
+      <c r="NK1" s="1" t="inlineStr">
         <is>
           <t>Lake Forest</t>
         </is>
       </c>
-      <c r="NK1" s="1" t="inlineStr">
+      <c r="NL1" s="1" t="inlineStr">
         <is>
           <t>Lake In The Hills</t>
         </is>
       </c>
-      <c r="NL1" s="1" t="inlineStr">
+      <c r="NM1" s="1" t="inlineStr">
         <is>
           <t>Lake Villa</t>
         </is>
       </c>
-      <c r="NM1" s="1" t="inlineStr">
+      <c r="NN1" s="1" t="inlineStr">
         <is>
           <t>Lake Zurich</t>
         </is>
       </c>
-      <c r="NN1" s="1" t="inlineStr">
+      <c r="NO1" s="1" t="inlineStr">
         <is>
           <t>Lake in the Hills</t>
         </is>
       </c>
-      <c r="NO1" s="1" t="inlineStr">
+      <c r="NP1" s="1" t="inlineStr">
         <is>
           <t>Lanark</t>
         </is>
       </c>
-      <c r="NP1" s="1" t="inlineStr">
+      <c r="NQ1" s="1" t="inlineStr">
         <is>
           <t>Lansing</t>
         </is>
       </c>
-      <c r="NQ1" s="1" t="inlineStr">
+      <c r="NR1" s="1" t="inlineStr">
         <is>
           <t>Lawrenceville</t>
         </is>
       </c>
-      <c r="NR1" s="1" t="inlineStr">
+      <c r="NS1" s="1" t="inlineStr">
         <is>
           <t>Le Roy</t>
         </is>
       </c>
-      <c r="NS1" s="1" t="inlineStr">
+      <c r="NT1" s="1" t="inlineStr">
         <is>
           <t>Lebanon</t>
         </is>
       </c>
-      <c r="NT1" s="1" t="inlineStr">
+      <c r="NU1" s="1" t="inlineStr">
         <is>
           <t>Leland</t>
         </is>
       </c>
-      <c r="NU1" s="1" t="inlineStr">
+      <c r="NV1" s="1" t="inlineStr">
         <is>
           <t>Lemont</t>
         </is>
       </c>
-      <c r="NV1" s="1" t="inlineStr">
+      <c r="NW1" s="1" t="inlineStr">
         <is>
           <t>Lena</t>
         </is>
       </c>
-      <c r="NW1" s="1" t="inlineStr">
+      <c r="NX1" s="1" t="inlineStr">
         <is>
           <t>Lewistown</t>
         </is>
       </c>
-      <c r="NX1" s="1" t="inlineStr">
+      <c r="NY1" s="1" t="inlineStr">
         <is>
           <t>Lexington</t>
         </is>
       </c>
-      <c r="NY1" s="1" t="inlineStr">
+      <c r="NZ1" s="1" t="inlineStr">
         <is>
           <t>Liberty</t>
         </is>
       </c>
-      <c r="NZ1" s="1" t="inlineStr">
+      <c r="OA1" s="1" t="inlineStr">
         <is>
           <t>Libertyville</t>
         </is>
       </c>
-      <c r="OA1" s="1" t="inlineStr">
+      <c r="OB1" s="1" t="inlineStr">
         <is>
           <t>Lincoln</t>
         </is>
       </c>
-      <c r="OB1" s="1" t="inlineStr">
+      <c r="OC1" s="1" t="inlineStr">
         <is>
           <t>Lincolnshire</t>
         </is>
       </c>
-      <c r="OC1" s="1" t="inlineStr">
+      <c r="OD1" s="1" t="inlineStr">
         <is>
           <t>Lincolnwood</t>
         </is>
       </c>
-      <c r="OD1" s="1" t="inlineStr">
+      <c r="OE1" s="1" t="inlineStr">
         <is>
           <t>Lindenhurst</t>
         </is>
       </c>
-      <c r="OE1" s="1" t="inlineStr">
+      <c r="OF1" s="1" t="inlineStr">
         <is>
           <t>Lisle</t>
         </is>
       </c>
-      <c r="OF1" s="1" t="inlineStr">
+      <c r="OG1" s="1" t="inlineStr">
         <is>
           <t>Litchfield</t>
         </is>
       </c>
-      <c r="OG1" s="1" t="inlineStr">
+      <c r="OH1" s="1" t="inlineStr">
         <is>
           <t>Lk In The Hls</t>
         </is>
       </c>
-      <c r="OH1" s="1" t="inlineStr">
+      <c r="OI1" s="1" t="inlineStr">
         <is>
           <t>Lockport</t>
         </is>
       </c>
-      <c r="OI1" s="1" t="inlineStr">
+      <c r="OJ1" s="1" t="inlineStr">
         <is>
           <t>Lombard</t>
         </is>
       </c>
-      <c r="OJ1" s="1" t="inlineStr">
+      <c r="OK1" s="1" t="inlineStr">
         <is>
           <t>London Mills</t>
         </is>
       </c>
-      <c r="OK1" s="1" t="inlineStr">
+      <c r="OL1" s="1" t="inlineStr">
         <is>
           <t>Long Grove</t>
         </is>
       </c>
-      <c r="OL1" s="1" t="inlineStr">
+      <c r="OM1" s="1" t="inlineStr">
         <is>
           <t>Lostant</t>
         </is>
       </c>
-      <c r="OM1" s="1" t="inlineStr">
+      <c r="ON1" s="1" t="inlineStr">
         <is>
           <t>Louisville</t>
         </is>
       </c>
-      <c r="ON1" s="1" t="inlineStr">
+      <c r="OO1" s="1" t="inlineStr">
         <is>
           <t>Lovejoy</t>
         </is>
       </c>
-      <c r="OO1" s="1" t="inlineStr">
+      <c r="OP1" s="1" t="inlineStr">
         <is>
           <t>Loves Park</t>
         </is>
       </c>
-      <c r="OP1" s="1" t="inlineStr">
+      <c r="OQ1" s="1" t="inlineStr">
         <is>
           <t>Lovington</t>
         </is>
       </c>
-      <c r="OQ1" s="1" t="inlineStr">
+      <c r="OR1" s="1" t="inlineStr">
         <is>
           <t>Ludlow</t>
         </is>
       </c>
-      <c r="OR1" s="1" t="inlineStr">
+      <c r="OS1" s="1" t="inlineStr">
         <is>
           <t>Lynwood</t>
         </is>
       </c>
-      <c r="OS1" s="1" t="inlineStr">
+      <c r="OT1" s="1" t="inlineStr">
         <is>
           <t>Lyons</t>
         </is>
       </c>
-      <c r="OT1" s="1" t="inlineStr">
+      <c r="OU1" s="1" t="inlineStr">
         <is>
           <t>Machesney Park</t>
         </is>
       </c>
-      <c r="OU1" s="1" t="inlineStr">
+      <c r="OV1" s="1" t="inlineStr">
         <is>
           <t>Mackinaw</t>
         </is>
       </c>
-      <c r="OV1" s="1" t="inlineStr">
+      <c r="OW1" s="1" t="inlineStr">
         <is>
           <t>Macomb</t>
         </is>
       </c>
-      <c r="OW1" s="1" t="inlineStr">
+      <c r="OX1" s="1" t="inlineStr">
         <is>
           <t>Macon</t>
         </is>
       </c>
-      <c r="OX1" s="1" t="inlineStr">
+      <c r="OY1" s="1" t="inlineStr">
         <is>
           <t>Madison</t>
         </is>
       </c>
-      <c r="OY1" s="1" t="inlineStr">
+      <c r="OZ1" s="1" t="inlineStr">
         <is>
           <t>Mahomet</t>
         </is>
       </c>
-      <c r="OZ1" s="1" t="inlineStr">
+      <c r="PA1" s="1" t="inlineStr">
         <is>
           <t>Malden</t>
         </is>
       </c>
-      <c r="PA1" s="1" t="inlineStr">
+      <c r="PB1" s="1" t="inlineStr">
         <is>
           <t>Malta</t>
         </is>
       </c>
-      <c r="PB1" s="1" t="inlineStr">
+      <c r="PC1" s="1" t="inlineStr">
         <is>
           <t>Manhattan</t>
         </is>
       </c>
-      <c r="PC1" s="1" t="inlineStr">
+      <c r="PD1" s="1" t="inlineStr">
         <is>
           <t>Manito</t>
         </is>
       </c>
-      <c r="PD1" s="1" t="inlineStr">
+      <c r="PE1" s="1" t="inlineStr">
         <is>
           <t>Manlius</t>
         </is>
       </c>
-      <c r="PE1" s="1" t="inlineStr">
+      <c r="PF1" s="1" t="inlineStr">
         <is>
           <t>Mansfield</t>
         </is>
       </c>
-      <c r="PF1" s="1" t="inlineStr">
+      <c r="PG1" s="1" t="inlineStr">
         <is>
           <t>Manteno</t>
         </is>
       </c>
-      <c r="PG1" s="1" t="inlineStr">
+      <c r="PH1" s="1" t="inlineStr">
         <is>
           <t>Maple Park</t>
         </is>
       </c>
-      <c r="PH1" s="1" t="inlineStr">
+      <c r="PI1" s="1" t="inlineStr">
         <is>
           <t>Marengo</t>
         </is>
       </c>
-      <c r="PI1" s="1" t="inlineStr">
+      <c r="PJ1" s="1" t="inlineStr">
         <is>
           <t>Marine</t>
         </is>
       </c>
-      <c r="PJ1" s="1" t="inlineStr">
+      <c r="PK1" s="1" t="inlineStr">
         <is>
           <t>Marion</t>
         </is>
       </c>
-      <c r="PK1" s="1" t="inlineStr">
+      <c r="PL1" s="1" t="inlineStr">
         <is>
           <t>Marissa</t>
         </is>
       </c>
-      <c r="PL1" s="1" t="inlineStr">
+      <c r="PM1" s="1" t="inlineStr">
         <is>
           <t>Markham</t>
         </is>
       </c>
-      <c r="PM1" s="1" t="inlineStr">
+      <c r="PN1" s="1" t="inlineStr">
         <is>
           <t>Maroa</t>
         </is>
       </c>
-      <c r="PN1" s="1" t="inlineStr">
+      <c r="PO1" s="1" t="inlineStr">
         <is>
           <t>Marquette Heights</t>
         </is>
       </c>
-      <c r="PO1" s="1" t="inlineStr">
+      <c r="PP1" s="1" t="inlineStr">
         <is>
           <t>Marquette Hts</t>
         </is>
       </c>
-      <c r="PP1" s="1" t="inlineStr">
+      <c r="PQ1" s="1" t="inlineStr">
         <is>
           <t>Marseilles</t>
         </is>
       </c>
-      <c r="PQ1" s="1" t="inlineStr">
+      <c r="PR1" s="1" t="inlineStr">
         <is>
           <t>Marshall</t>
         </is>
       </c>
-      <c r="PR1" s="1" t="inlineStr">
+      <c r="PS1" s="1" t="inlineStr">
         <is>
           <t>Martinsville</t>
         </is>
       </c>
-      <c r="PS1" s="1" t="inlineStr">
+      <c r="PT1" s="1" t="inlineStr">
         <is>
           <t>Maryville</t>
         </is>
       </c>
-      <c r="PT1" s="1" t="inlineStr">
+      <c r="PU1" s="1" t="inlineStr">
         <is>
           <t>Mascoutah</t>
         </is>
       </c>
-      <c r="PU1" s="1" t="inlineStr">
+      <c r="PV1" s="1" t="inlineStr">
         <is>
           <t>Mason City</t>
         </is>
       </c>
-      <c r="PV1" s="1" t="inlineStr">
+      <c r="PW1" s="1" t="inlineStr">
         <is>
           <t>Matherville</t>
         </is>
       </c>
-      <c r="PW1" s="1" t="inlineStr">
+      <c r="PX1" s="1" t="inlineStr">
         <is>
           <t>Matteson</t>
         </is>
       </c>
-      <c r="PX1" s="1" t="inlineStr">
+      <c r="PY1" s="1" t="inlineStr">
         <is>
           <t>Mattoon</t>
         </is>
       </c>
-      <c r="PY1" s="1" t="inlineStr">
+      <c r="PZ1" s="1" t="inlineStr">
         <is>
           <t>Maywood</t>
         </is>
       </c>
-      <c r="PZ1" s="1" t="inlineStr">
+      <c r="QA1" s="1" t="inlineStr">
         <is>
           <t>Mazon</t>
         </is>
       </c>
-      <c r="QA1" s="1" t="inlineStr">
+      <c r="QB1" s="1" t="inlineStr">
         <is>
           <t>Mc Leansboro</t>
         </is>
       </c>
-      <c r="QB1" s="1" t="inlineStr">
+      <c r="QC1" s="1" t="inlineStr">
         <is>
           <t>Mc Nabb</t>
         </is>
       </c>
-      <c r="QC1" s="1" t="inlineStr">
+      <c r="QD1" s="1" t="inlineStr">
         <is>
           <t>McHenry</t>
         </is>
       </c>
-      <c r="QD1" s="1" t="inlineStr">
+      <c r="QE1" s="1" t="inlineStr">
         <is>
           <t>Mchenry</t>
         </is>
       </c>
-      <c r="QE1" s="1" t="inlineStr">
+      <c r="QF1" s="1" t="inlineStr">
         <is>
           <t>Medora</t>
         </is>
       </c>
-      <c r="QF1" s="1" t="inlineStr">
+      <c r="QG1" s="1" t="inlineStr">
         <is>
           <t>Melrose Park</t>
         </is>
       </c>
-      <c r="QG1" s="1" t="inlineStr">
+      <c r="QH1" s="1" t="inlineStr">
         <is>
           <t>Mendon</t>
         </is>
       </c>
-      <c r="QH1" s="1" t="inlineStr">
+      <c r="QI1" s="1" t="inlineStr">
         <is>
           <t>Mendota</t>
         </is>
       </c>
-      <c r="QI1" s="1" t="inlineStr">
+      <c r="QJ1" s="1" t="inlineStr">
         <is>
           <t>Meredosia</t>
         </is>
       </c>
-      <c r="QJ1" s="1" t="inlineStr">
+      <c r="QK1" s="1" t="inlineStr">
         <is>
           <t>Merrionette Park</t>
         </is>
       </c>
-      <c r="QK1" s="1" t="inlineStr">
+      <c r="QL1" s="1" t="inlineStr">
         <is>
           <t>Metamora</t>
         </is>
       </c>
-      <c r="QL1" s="1" t="inlineStr">
+      <c r="QM1" s="1" t="inlineStr">
         <is>
           <t>Metropolis</t>
         </is>
       </c>
-      <c r="QM1" s="1" t="inlineStr">
+      <c r="QN1" s="1" t="inlineStr">
         <is>
           <t>Middletown</t>
         </is>
       </c>
-      <c r="QN1" s="1" t="inlineStr">
+      <c r="QO1" s="1" t="inlineStr">
         <is>
           <t>Midlothian</t>
         </is>
       </c>
-      <c r="QO1" s="1" t="inlineStr">
+      <c r="QP1" s="1" t="inlineStr">
         <is>
           <t>Milan</t>
         </is>
       </c>
-      <c r="QP1" s="1" t="inlineStr">
+      <c r="QQ1" s="1" t="inlineStr">
         <is>
           <t>Milford</t>
         </is>
       </c>
-      <c r="QQ1" s="1" t="inlineStr">
+      <c r="QR1" s="1" t="inlineStr">
         <is>
           <t>Milledgeville</t>
         </is>
       </c>
-      <c r="QR1" s="1" t="inlineStr">
+      <c r="QS1" s="1" t="inlineStr">
         <is>
           <t>Millstadt</t>
         </is>
       </c>
-      <c r="QS1" s="1" t="inlineStr">
+      <c r="QT1" s="1" t="inlineStr">
         <is>
           <t>Minier</t>
         </is>
       </c>
-      <c r="QT1" s="1" t="inlineStr">
+      <c r="QU1" s="1" t="inlineStr">
         <is>
           <t>Minonk</t>
         </is>
       </c>
-      <c r="QU1" s="1" t="inlineStr">
+      <c r="QV1" s="1" t="inlineStr">
         <is>
           <t>Minooka</t>
         </is>
       </c>
-      <c r="QV1" s="1" t="inlineStr">
+      <c r="QW1" s="1" t="inlineStr">
         <is>
           <t>Mokena</t>
         </is>
       </c>
-      <c r="QW1" s="1" t="inlineStr">
+      <c r="QX1" s="1" t="inlineStr">
         <is>
           <t>Moline</t>
         </is>
       </c>
-      <c r="QX1" s="1" t="inlineStr">
+      <c r="QY1" s="1" t="inlineStr">
         <is>
           <t>Momence</t>
         </is>
       </c>
-      <c r="QY1" s="1" t="inlineStr">
+      <c r="QZ1" s="1" t="inlineStr">
         <is>
           <t>Monee</t>
         </is>
       </c>
-      <c r="QZ1" s="1" t="inlineStr">
+      <c r="RA1" s="1" t="inlineStr">
         <is>
           <t>Monmouth</t>
         </is>
       </c>
-      <c r="RA1" s="1" t="inlineStr">
+      <c r="RB1" s="1" t="inlineStr">
         <is>
           <t>Monroe Center</t>
         </is>
       </c>
-      <c r="RB1" s="1" t="inlineStr">
+      <c r="RC1" s="1" t="inlineStr">
         <is>
           <t>Montgomery</t>
         </is>
       </c>
-      <c r="RC1" s="1" t="inlineStr">
+      <c r="RD1" s="1" t="inlineStr">
         <is>
           <t>Monticello</t>
         </is>
       </c>
-      <c r="RD1" s="1" t="inlineStr">
+      <c r="RE1" s="1" t="inlineStr">
         <is>
           <t>Moro</t>
         </is>
       </c>
-      <c r="RE1" s="1" t="inlineStr">
+      <c r="RF1" s="1" t="inlineStr">
         <is>
           <t>Morris</t>
         </is>
       </c>
-      <c r="RF1" s="1" t="inlineStr">
+      <c r="RG1" s="1" t="inlineStr">
         <is>
           <t>Morrison</t>
         </is>
       </c>
-      <c r="RG1" s="1" t="inlineStr">
+      <c r="RH1" s="1" t="inlineStr">
         <is>
           <t>Morrisonville</t>
         </is>
       </c>
-      <c r="RH1" s="1" t="inlineStr">
+      <c r="RI1" s="1" t="inlineStr">
         <is>
           <t>Morton</t>
         </is>
       </c>
-      <c r="RI1" s="1" t="inlineStr">
+      <c r="RJ1" s="1" t="inlineStr">
         <is>
           <t>Morton Grove</t>
         </is>
       </c>
-      <c r="RJ1" s="1" t="inlineStr">
+      <c r="RK1" s="1" t="inlineStr">
         <is>
           <t>Mossville</t>
         </is>
       </c>
-      <c r="RK1" s="1" t="inlineStr">
+      <c r="RL1" s="1" t="inlineStr">
         <is>
           <t>Mounds</t>
         </is>
       </c>
-      <c r="RL1" s="1" t="inlineStr">
+      <c r="RM1" s="1" t="inlineStr">
         <is>
           <t>Mount Carmel</t>
         </is>
       </c>
-      <c r="RM1" s="1" t="inlineStr">
+      <c r="RN1" s="1" t="inlineStr">
         <is>
           <t>Mount Carroll</t>
         </is>
       </c>
-      <c r="RN1" s="1" t="inlineStr">
+      <c r="RO1" s="1" t="inlineStr">
         <is>
           <t>Mount Olive</t>
         </is>
       </c>
-      <c r="RO1" s="1" t="inlineStr">
+      <c r="RP1" s="1" t="inlineStr">
         <is>
           <t>Mount Prospect</t>
         </is>
       </c>
-      <c r="RP1" s="1" t="inlineStr">
+      <c r="RQ1" s="1" t="inlineStr">
         <is>
           <t>Mount Pulaski</t>
         </is>
       </c>
-      <c r="RQ1" s="1" t="inlineStr">
+      <c r="RR1" s="1" t="inlineStr">
         <is>
           <t>Mount Sterling</t>
         </is>
       </c>
-      <c r="RR1" s="1" t="inlineStr">
+      <c r="RS1" s="1" t="inlineStr">
         <is>
           <t>Mount Vernon</t>
         </is>
       </c>
-      <c r="RS1" s="1" t="inlineStr">
+      <c r="RT1" s="1" t="inlineStr">
         <is>
           <t>Mount Zion</t>
         </is>
       </c>
-      <c r="RT1" s="1" t="inlineStr">
+      <c r="RU1" s="1" t="inlineStr">
         <is>
           <t>Moweaqua</t>
         </is>
       </c>
-      <c r="RU1" s="1" t="inlineStr">
+      <c r="RV1" s="1" t="inlineStr">
         <is>
           <t>Mt Prospect</t>
         </is>
       </c>
-      <c r="RV1" s="1" t="inlineStr">
+      <c r="RW1" s="1" t="inlineStr">
         <is>
           <t>Mt Sterling</t>
         </is>
       </c>
-      <c r="RW1" s="1" t="inlineStr">
+      <c r="RX1" s="1" t="inlineStr">
         <is>
           <t>Mt Zion</t>
         </is>
       </c>
-      <c r="RX1" s="1" t="inlineStr">
+      <c r="RY1" s="1" t="inlineStr">
         <is>
           <t>Mulberry Grove</t>
         </is>
       </c>
-      <c r="RY1" s="1" t="inlineStr">
+      <c r="RZ1" s="1" t="inlineStr">
         <is>
           <t>Mundelein</t>
         </is>
       </c>
-      <c r="RZ1" s="1" t="inlineStr">
+      <c r="SA1" s="1" t="inlineStr">
         <is>
           <t>Murphysboro</t>
         </is>
       </c>
-      <c r="SA1" s="1" t="inlineStr">
+      <c r="SB1" s="1" t="inlineStr">
         <is>
           <t>Murrayville</t>
         </is>
       </c>
-      <c r="SB1" s="1" t="inlineStr">
+      <c r="SC1" s="1" t="inlineStr">
         <is>
           <t>Naperville</t>
         </is>
       </c>
-      <c r="SC1" s="1" t="inlineStr">
+      <c r="SD1" s="1" t="inlineStr">
         <is>
           <t>Nashville</t>
         </is>
       </c>
-      <c r="SD1" s="1" t="inlineStr">
+      <c r="SE1" s="1" t="inlineStr">
         <is>
           <t>Nauvoo</t>
         </is>
       </c>
-      <c r="SE1" s="1" t="inlineStr">
+      <c r="SF1" s="1" t="inlineStr">
         <is>
           <t>Neoga</t>
         </is>
       </c>
-      <c r="SF1" s="1" t="inlineStr">
+      <c r="SG1" s="1" t="inlineStr">
         <is>
           <t>Neponset</t>
         </is>
       </c>
-      <c r="SG1" s="1" t="inlineStr">
+      <c r="SH1" s="1" t="inlineStr">
         <is>
           <t>New Athens</t>
         </is>
       </c>
-      <c r="SH1" s="1" t="inlineStr">
+      <c r="SI1" s="1" t="inlineStr">
         <is>
           <t>New Baden</t>
         </is>
       </c>
-      <c r="SI1" s="1" t="inlineStr">
+      <c r="SJ1" s="1" t="inlineStr">
         <is>
           <t>New Berlin</t>
         </is>
       </c>
-      <c r="SJ1" s="1" t="inlineStr">
+      <c r="SK1" s="1" t="inlineStr">
         <is>
           <t>New Lenox</t>
         </is>
       </c>
-      <c r="SK1" s="1" t="inlineStr">
+      <c r="SL1" s="1" t="inlineStr">
         <is>
           <t>Newark</t>
         </is>
       </c>
-      <c r="SL1" s="1" t="inlineStr">
+      <c r="SM1" s="1" t="inlineStr">
         <is>
           <t>Newton</t>
         </is>
       </c>
-      <c r="SM1" s="1" t="inlineStr">
+      <c r="SN1" s="1" t="inlineStr">
         <is>
           <t>Niantic</t>
         </is>
       </c>
-      <c r="SN1" s="1" t="inlineStr">
+      <c r="SO1" s="1" t="inlineStr">
         <is>
           <t>Niles</t>
         </is>
       </c>
-      <c r="SO1" s="1" t="inlineStr">
+      <c r="SP1" s="1" t="inlineStr">
         <is>
           <t>Nokomis</t>
         </is>
       </c>
-      <c r="SP1" s="1" t="inlineStr">
+      <c r="SQ1" s="1" t="inlineStr">
         <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="SQ1" s="1" t="inlineStr">
+      <c r="SR1" s="1" t="inlineStr">
         <is>
           <t>Norridge</t>
         </is>
       </c>
-      <c r="SR1" s="1" t="inlineStr">
+      <c r="SS1" s="1" t="inlineStr">
         <is>
           <t>Norris City</t>
         </is>
       </c>
-      <c r="SS1" s="1" t="inlineStr">
+      <c r="ST1" s="1" t="inlineStr">
         <is>
           <t>North Chicago</t>
         </is>
       </c>
-      <c r="ST1" s="1" t="inlineStr">
+      <c r="SU1" s="1" t="inlineStr">
         <is>
           <t>North Riverside</t>
         </is>
       </c>
-      <c r="SU1" s="1" t="inlineStr">
+      <c r="SV1" s="1" t="inlineStr">
         <is>
           <t>Northbrook</t>
         </is>
       </c>
-      <c r="SV1" s="1" t="inlineStr">
+      <c r="SW1" s="1" t="inlineStr">
         <is>
           <t>Northfield</t>
         </is>
       </c>
-      <c r="SW1" s="1" t="inlineStr">
+      <c r="SX1" s="1" t="inlineStr">
         <is>
           <t>Northlake</t>
         </is>
       </c>
-      <c r="SX1" s="1" t="inlineStr">
+      <c r="SY1" s="1" t="inlineStr">
         <is>
           <t>O Fallon</t>
         </is>
       </c>
-      <c r="SY1" s="1" t="inlineStr">
+      <c r="SZ1" s="1" t="inlineStr">
         <is>
           <t>Oak Brook</t>
         </is>
       </c>
-      <c r="SZ1" s="1" t="inlineStr">
+      <c r="TA1" s="1" t="inlineStr">
         <is>
           <t>Oak Forest</t>
         </is>
       </c>
-      <c r="TA1" s="1" t="inlineStr">
+      <c r="TB1" s="1" t="inlineStr">
         <is>
           <t>Oak Lawn</t>
         </is>
       </c>
-      <c r="TB1" s="1" t="inlineStr">
+      <c r="TC1" s="1" t="inlineStr">
         <is>
           <t>Oak Park</t>
         </is>
       </c>
-      <c r="TC1" s="1" t="inlineStr">
+      <c r="TD1" s="1" t="inlineStr">
         <is>
           <t>Oakbrook Terrace</t>
         </is>
       </c>
-      <c r="TD1" s="1" t="inlineStr">
+      <c r="TE1" s="1" t="inlineStr">
         <is>
           <t>Oakland</t>
         </is>
       </c>
-      <c r="TE1" s="1" t="inlineStr">
+      <c r="TF1" s="1" t="inlineStr">
         <is>
           <t>Oakwood</t>
         </is>
       </c>
-      <c r="TF1" s="1" t="inlineStr">
+      <c r="TG1" s="1" t="inlineStr">
         <is>
           <t>Oblong</t>
         </is>
       </c>
-      <c r="TG1" s="1" t="inlineStr">
+      <c r="TH1" s="1" t="inlineStr">
         <is>
           <t>Odell</t>
         </is>
       </c>
-      <c r="TH1" s="1" t="inlineStr">
+      <c r="TI1" s="1" t="inlineStr">
         <is>
           <t>Odin</t>
         </is>
       </c>
-      <c r="TI1" s="1" t="inlineStr">
+      <c r="TJ1" s="1" t="inlineStr">
         <is>
           <t>Ogden</t>
         </is>
       </c>
-      <c r="TJ1" s="1" t="inlineStr">
+      <c r="TK1" s="1" t="inlineStr">
         <is>
           <t>Oglesby</t>
         </is>
       </c>
-      <c r="TK1" s="1" t="inlineStr">
+      <c r="TL1" s="1" t="inlineStr">
         <is>
           <t>Ohio</t>
         </is>
       </c>
-      <c r="TL1" s="1" t="inlineStr">
+      <c r="TM1" s="1" t="inlineStr">
         <is>
           <t>Okawville</t>
         </is>
       </c>
-      <c r="TM1" s="1" t="inlineStr">
+      <c r="TN1" s="1" t="inlineStr">
         <is>
           <t>Old Mill Creek</t>
         </is>
       </c>
-      <c r="TN1" s="1" t="inlineStr">
+      <c r="TO1" s="1" t="inlineStr">
         <is>
           <t>Olney</t>
         </is>
       </c>
-      <c r="TO1" s="1" t="inlineStr">
+      <c r="TP1" s="1" t="inlineStr">
         <is>
           <t>Olympia Fields</t>
         </is>
       </c>
-      <c r="TP1" s="1" t="inlineStr">
+      <c r="TQ1" s="1" t="inlineStr">
         <is>
           <t>Onarga</t>
         </is>
       </c>
-      <c r="TQ1" s="1" t="inlineStr">
+      <c r="TR1" s="1" t="inlineStr">
         <is>
           <t>Oneida</t>
         </is>
       </c>
-      <c r="TR1" s="1" t="inlineStr">
+      <c r="TS1" s="1" t="inlineStr">
         <is>
           <t>Orangeville</t>
         </is>
       </c>
-      <c r="TS1" s="1" t="inlineStr">
+      <c r="TT1" s="1" t="inlineStr">
         <is>
           <t>Oreana</t>
         </is>
       </c>
-      <c r="TT1" s="1" t="inlineStr">
+      <c r="TU1" s="1" t="inlineStr">
         <is>
           <t>Oregon</t>
         </is>
       </c>
-      <c r="TU1" s="1" t="inlineStr">
+      <c r="TV1" s="1" t="inlineStr">
         <is>
           <t>Orion</t>
         </is>
       </c>
-      <c r="TV1" s="1" t="inlineStr">
+      <c r="TW1" s="1" t="inlineStr">
         <is>
           <t>Orland Hills</t>
         </is>
       </c>
-      <c r="TW1" s="1" t="inlineStr">
+      <c r="TX1" s="1" t="inlineStr">
         <is>
           <t>Orland Park</t>
         </is>
       </c>
-      <c r="TX1" s="1" t="inlineStr">
+      <c r="TY1" s="1" t="inlineStr">
         <is>
           <t>Oswego</t>
         </is>
       </c>
-      <c r="TY1" s="1" t="inlineStr">
+      <c r="TZ1" s="1" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
       </c>
-      <c r="TZ1" s="1" t="inlineStr">
+      <c r="UA1" s="1" t="inlineStr">
         <is>
           <t>Palatine</t>
         </is>
       </c>
-      <c r="UA1" s="1" t="inlineStr">
+      <c r="UB1" s="1" t="inlineStr">
         <is>
           <t>Palestine</t>
         </is>
       </c>
-      <c r="UB1" s="1" t="inlineStr">
+      <c r="UC1" s="1" t="inlineStr">
         <is>
           <t>Palmyra</t>
         </is>
       </c>
-      <c r="UC1" s="1" t="inlineStr">
+      <c r="UD1" s="1" t="inlineStr">
         <is>
           <t>Palos Heights</t>
         </is>
       </c>
-      <c r="UD1" s="1" t="inlineStr">
+      <c r="UE1" s="1" t="inlineStr">
         <is>
           <t>Palos Hills</t>
         </is>
       </c>
-      <c r="UE1" s="1" t="inlineStr">
+      <c r="UF1" s="1" t="inlineStr">
         <is>
           <t>Palos Park</t>
         </is>
       </c>
-      <c r="UF1" s="1" t="inlineStr">
+      <c r="UG1" s="1" t="inlineStr">
         <is>
           <t>Pana</t>
         </is>
       </c>
-      <c r="UG1" s="1" t="inlineStr">
+      <c r="UH1" s="1" t="inlineStr">
         <is>
           <t>Paris</t>
         </is>
       </c>
-      <c r="UH1" s="1" t="inlineStr">
+      <c r="UI1" s="1" t="inlineStr">
         <is>
           <t>Park Forest</t>
         </is>
       </c>
-      <c r="UI1" s="1" t="inlineStr">
+      <c r="UJ1" s="1" t="inlineStr">
         <is>
           <t>Park Ridge</t>
         </is>
       </c>
-      <c r="UJ1" s="1" t="inlineStr">
+      <c r="UK1" s="1" t="inlineStr">
         <is>
           <t>Patoka</t>
         </is>
       </c>
-      <c r="UK1" s="1" t="inlineStr">
+      <c r="UL1" s="1" t="inlineStr">
         <is>
           <t>Paw Paw</t>
         </is>
       </c>
-      <c r="UL1" s="1" t="inlineStr">
+      <c r="UM1" s="1" t="inlineStr">
         <is>
           <t>Pawnee</t>
         </is>
       </c>
-      <c r="UM1" s="1" t="inlineStr">
+      <c r="UN1" s="1" t="inlineStr">
         <is>
           <t>Paxton</t>
         </is>
       </c>
-      <c r="UN1" s="1" t="inlineStr">
+      <c r="UO1" s="1" t="inlineStr">
         <is>
           <t>Payson</t>
         </is>
       </c>
-      <c r="UO1" s="1" t="inlineStr">
+      <c r="UP1" s="1" t="inlineStr">
         <is>
           <t>Pearl City</t>
         </is>
       </c>
-      <c r="UP1" s="1" t="inlineStr">
+      <c r="UQ1" s="1" t="inlineStr">
         <is>
           <t>Pecatonica</t>
         </is>
       </c>
-      <c r="UQ1" s="1" t="inlineStr">
+      <c r="UR1" s="1" t="inlineStr">
         <is>
           <t>Pekin</t>
         </is>
       </c>
-      <c r="UR1" s="1" t="inlineStr">
+      <c r="US1" s="1" t="inlineStr">
         <is>
           <t>Peoria</t>
         </is>
       </c>
-      <c r="US1" s="1" t="inlineStr">
+      <c r="UT1" s="1" t="inlineStr">
         <is>
           <t>Peoria Heights</t>
         </is>
       </c>
-      <c r="UT1" s="1" t="inlineStr">
+      <c r="UU1" s="1" t="inlineStr">
         <is>
           <t>Peotone</t>
         </is>
       </c>
-      <c r="UU1" s="1" t="inlineStr">
+      <c r="UV1" s="1" t="inlineStr">
         <is>
           <t>Peru</t>
         </is>
       </c>
-      <c r="UV1" s="1" t="inlineStr">
+      <c r="UW1" s="1" t="inlineStr">
         <is>
           <t>Petersburg</t>
         </is>
       </c>
-      <c r="UW1" s="1" t="inlineStr">
+      <c r="UX1" s="1" t="inlineStr">
         <is>
           <t>Piasa</t>
         </is>
       </c>
-      <c r="UX1" s="1" t="inlineStr">
+      <c r="UY1" s="1" t="inlineStr">
         <is>
           <t>Pinckneyville</t>
         </is>
       </c>
-      <c r="UY1" s="1" t="inlineStr">
+      <c r="UZ1" s="1" t="inlineStr">
         <is>
           <t>Pingree Grove</t>
         </is>
       </c>
-      <c r="UZ1" s="1" t="inlineStr">
+      <c r="VA1" s="1" t="inlineStr">
         <is>
           <t>Piper City</t>
         </is>
       </c>
-      <c r="VA1" s="1" t="inlineStr">
+      <c r="VB1" s="1" t="inlineStr">
         <is>
           <t>Pittsburg</t>
         </is>
       </c>
-      <c r="VB1" s="1" t="inlineStr">
+      <c r="VC1" s="1" t="inlineStr">
         <is>
           <t>Pittsfield</t>
         </is>
       </c>
-      <c r="VC1" s="1" t="inlineStr">
+      <c r="VD1" s="1" t="inlineStr">
         <is>
           <t>Plainfield</t>
         </is>
       </c>
-      <c r="VD1" s="1" t="inlineStr">
+      <c r="VE1" s="1" t="inlineStr">
         <is>
           <t>Plano</t>
         </is>
       </c>
-      <c r="VE1" s="1" t="inlineStr">
+      <c r="VF1" s="1" t="inlineStr">
         <is>
           <t>Pleasant Hill</t>
         </is>
       </c>
-      <c r="VF1" s="1" t="inlineStr">
+      <c r="VG1" s="1" t="inlineStr">
         <is>
           <t>Pleasant Plains</t>
         </is>
       </c>
-      <c r="VG1" s="1" t="inlineStr">
+      <c r="VH1" s="1" t="inlineStr">
         <is>
           <t>Pocahontas</t>
         </is>
       </c>
-      <c r="VH1" s="1" t="inlineStr">
+      <c r="VI1" s="1" t="inlineStr">
         <is>
           <t>Polo</t>
         </is>
       </c>
-      <c r="VI1" s="1" t="inlineStr">
+      <c r="VJ1" s="1" t="inlineStr">
         <is>
           <t>Pontiac</t>
         </is>
       </c>
-      <c r="VJ1" s="1" t="inlineStr">
+      <c r="VK1" s="1" t="inlineStr">
         <is>
           <t>Poplar Grove</t>
         </is>
       </c>
-      <c r="VK1" s="1" t="inlineStr">
+      <c r="VL1" s="1" t="inlineStr">
         <is>
           <t>Posen</t>
         </is>
       </c>
-      <c r="VL1" s="1" t="inlineStr">
+      <c r="VM1" s="1" t="inlineStr">
         <is>
           <t>Potomac</t>
         </is>
       </c>
-      <c r="VM1" s="1" t="inlineStr">
+      <c r="VN1" s="1" t="inlineStr">
         <is>
           <t>Prairie Du Rocher</t>
         </is>
       </c>
-      <c r="VN1" s="1" t="inlineStr">
+      <c r="VO1" s="1" t="inlineStr">
         <is>
           <t>Princeton</t>
         </is>
       </c>
-      <c r="VO1" s="1" t="inlineStr">
+      <c r="VP1" s="1" t="inlineStr">
         <is>
           <t>Princeville</t>
         </is>
       </c>
-      <c r="VP1" s="1" t="inlineStr">
+      <c r="VQ1" s="1" t="inlineStr">
         <is>
           <t>Prophetstown</t>
         </is>
       </c>
-      <c r="VQ1" s="1" t="inlineStr">
+      <c r="VR1" s="1" t="inlineStr">
         <is>
           <t>Prospect Heights</t>
         </is>
       </c>
-      <c r="VR1" s="1" t="inlineStr">
+      <c r="VS1" s="1" t="inlineStr">
         <is>
           <t>Quincy</t>
         </is>
       </c>
-      <c r="VS1" s="1" t="inlineStr">
+      <c r="VT1" s="1" t="inlineStr">
         <is>
           <t>Ramsey</t>
         </is>
       </c>
-      <c r="VT1" s="1" t="inlineStr">
+      <c r="VU1" s="1" t="inlineStr">
         <is>
           <t>Rantoul</t>
         </is>
       </c>
-      <c r="VU1" s="1" t="inlineStr">
+      <c r="VV1" s="1" t="inlineStr">
         <is>
           <t>Raymond</t>
         </is>
       </c>
-      <c r="VV1" s="1" t="inlineStr">
+      <c r="VW1" s="1" t="inlineStr">
         <is>
           <t>Red Bud</t>
         </is>
       </c>
-      <c r="VW1" s="1" t="inlineStr">
+      <c r="VX1" s="1" t="inlineStr">
         <is>
           <t>Richmond</t>
         </is>
       </c>
-      <c r="VX1" s="1" t="inlineStr">
+      <c r="VY1" s="1" t="inlineStr">
         <is>
           <t>Richton Park</t>
         </is>
       </c>
-      <c r="VY1" s="1" t="inlineStr">
+      <c r="VZ1" s="1" t="inlineStr">
         <is>
           <t>River Forest</t>
         </is>
       </c>
-      <c r="VZ1" s="1" t="inlineStr">
+      <c r="WA1" s="1" t="inlineStr">
         <is>
           <t>River Grove</t>
         </is>
       </c>
-      <c r="WA1" s="1" t="inlineStr">
+      <c r="WB1" s="1" t="inlineStr">
         <is>
           <t>Riverdale</t>
         </is>
       </c>
-      <c r="WB1" s="1" t="inlineStr">
+      <c r="WC1" s="1" t="inlineStr">
         <is>
           <t>Riverside</t>
         </is>
       </c>
-      <c r="WC1" s="1" t="inlineStr">
+      <c r="WD1" s="1" t="inlineStr">
         <is>
           <t>Riverton</t>
         </is>
       </c>
-      <c r="WD1" s="1" t="inlineStr">
+      <c r="WE1" s="1" t="inlineStr">
         <is>
           <t>Roanoke</t>
         </is>
       </c>
-      <c r="WE1" s="1" t="inlineStr">
+      <c r="WF1" s="1" t="inlineStr">
         <is>
           <t>Robbins</t>
         </is>
       </c>
-      <c r="WF1" s="1" t="inlineStr">
+      <c r="WG1" s="1" t="inlineStr">
         <is>
           <t>Robinson</t>
         </is>
       </c>
-      <c r="WG1" s="1" t="inlineStr">
+      <c r="WH1" s="1" t="inlineStr">
         <is>
           <t>Rochelle</t>
         </is>
       </c>
-      <c r="WH1" s="1" t="inlineStr">
+      <c r="WI1" s="1" t="inlineStr">
         <is>
           <t>Rochester</t>
         </is>
       </c>
-      <c r="WI1" s="1" t="inlineStr">
+      <c r="WJ1" s="1" t="inlineStr">
         <is>
           <t>Rock Falls</t>
         </is>
       </c>
-      <c r="WJ1" s="1" t="inlineStr">
+      <c r="WK1" s="1" t="inlineStr">
         <is>
           <t>Rock Island</t>
         </is>
       </c>
-      <c r="WK1" s="1" t="inlineStr">
+      <c r="WL1" s="1" t="inlineStr">
         <is>
           <t>Rockdale</t>
         </is>
       </c>
-      <c r="WL1" s="1" t="inlineStr">
+      <c r="WM1" s="1" t="inlineStr">
         <is>
           <t>Rockford</t>
         </is>
       </c>
-      <c r="WM1" s="1" t="inlineStr">
+      <c r="WN1" s="1" t="inlineStr">
         <is>
           <t>Rockton</t>
         </is>
       </c>
-      <c r="WN1" s="1" t="inlineStr">
+      <c r="WO1" s="1" t="inlineStr">
         <is>
           <t>Rolling Meadows</t>
         </is>
       </c>
-      <c r="WO1" s="1" t="inlineStr">
+      <c r="WP1" s="1" t="inlineStr">
         <is>
           <t>Romeoville</t>
         </is>
       </c>
-      <c r="WP1" s="1" t="inlineStr">
+      <c r="WQ1" s="1" t="inlineStr">
         <is>
           <t>Roodhouse</t>
         </is>
       </c>
-      <c r="WQ1" s="1" t="inlineStr">
+      <c r="WR1" s="1" t="inlineStr">
         <is>
           <t>Roscoe</t>
         </is>
       </c>
-      <c r="WR1" s="1" t="inlineStr">
+      <c r="WS1" s="1" t="inlineStr">
         <is>
           <t>Roselle</t>
         </is>
       </c>
-      <c r="WS1" s="1" t="inlineStr">
+      <c r="WT1" s="1" t="inlineStr">
         <is>
           <t>Rosemont</t>
         </is>
       </c>
-      <c r="WT1" s="1" t="inlineStr">
+      <c r="WU1" s="1" t="inlineStr">
         <is>
           <t>Roseville</t>
         </is>
       </c>
-      <c r="WU1" s="1" t="inlineStr">
+      <c r="WV1" s="1" t="inlineStr">
         <is>
           <t>Round Lake</t>
         </is>
       </c>
-      <c r="WV1" s="1" t="inlineStr">
+      <c r="WW1" s="1" t="inlineStr">
         <is>
           <t>Round Lake Beach</t>
         </is>
       </c>
-      <c r="WW1" s="1" t="inlineStr">
+      <c r="WX1" s="1" t="inlineStr">
         <is>
           <t>Round Lake Heights</t>
         </is>
       </c>
-      <c r="WX1" s="1" t="inlineStr">
+      <c r="WY1" s="1" t="inlineStr">
         <is>
           <t>Round Lake Park</t>
         </is>
       </c>
-      <c r="WY1" s="1" t="inlineStr">
+      <c r="WZ1" s="1" t="inlineStr">
         <is>
           <t>Roxana</t>
         </is>
       </c>
-      <c r="WZ1" s="1" t="inlineStr">
+      <c r="XA1" s="1" t="inlineStr">
         <is>
           <t>Royal</t>
         </is>
       </c>
-      <c r="XA1" s="1" t="inlineStr">
+      <c r="XB1" s="1" t="inlineStr">
         <is>
           <t>Rushville</t>
         </is>
       </c>
-      <c r="XB1" s="1" t="inlineStr">
+      <c r="XC1" s="1" t="inlineStr">
         <is>
           <t>Saint Anne</t>
         </is>
       </c>
-      <c r="XC1" s="1" t="inlineStr">
+      <c r="XD1" s="1" t="inlineStr">
         <is>
           <t>Saint Charles</t>
         </is>
       </c>
-      <c r="XD1" s="1" t="inlineStr">
+      <c r="XE1" s="1" t="inlineStr">
         <is>
           <t>Saint Jacob</t>
         </is>
       </c>
-      <c r="XE1" s="1" t="inlineStr">
+      <c r="XF1" s="1" t="inlineStr">
         <is>
           <t>Saint Joseph</t>
         </is>
       </c>
-      <c r="XF1" s="1" t="inlineStr">
+      <c r="XG1" s="1" t="inlineStr">
         <is>
           <t>Salem</t>
         </is>
       </c>
-      <c r="XG1" s="1" t="inlineStr">
+      <c r="XH1" s="1" t="inlineStr">
         <is>
           <t>Sandoval</t>
         </is>
       </c>
-      <c r="XH1" s="1" t="inlineStr">
+      <c r="XI1" s="1" t="inlineStr">
         <is>
           <t>Sandwich</t>
         </is>
       </c>
-      <c r="XI1" s="1" t="inlineStr">
+      <c r="XJ1" s="1" t="inlineStr">
         <is>
           <t>Sauk Village</t>
         </is>
       </c>
-      <c r="XJ1" s="1" t="inlineStr">
+      <c r="XK1" s="1" t="inlineStr">
         <is>
           <t>Saunemin</t>
         </is>
       </c>
-      <c r="XK1" s="1" t="inlineStr">
+      <c r="XL1" s="1" t="inlineStr">
         <is>
           <t>Savanna</t>
         </is>
       </c>
-      <c r="XL1" s="1" t="inlineStr">
+      <c r="XM1" s="1" t="inlineStr">
         <is>
           <t>Savoy</t>
         </is>
       </c>
-      <c r="XM1" s="1" t="inlineStr">
+      <c r="XN1" s="1" t="inlineStr">
         <is>
           <t>Scales Mound</t>
         </is>
       </c>
-      <c r="XN1" s="1" t="inlineStr">
+      <c r="XO1" s="1" t="inlineStr">
         <is>
           <t>Schaumburg</t>
         </is>
       </c>
-      <c r="XO1" s="1" t="inlineStr">
+      <c r="XP1" s="1" t="inlineStr">
         <is>
           <t>Schiller Park</t>
         </is>
       </c>
-      <c r="XP1" s="1" t="inlineStr">
+      <c r="XQ1" s="1" t="inlineStr">
         <is>
           <t>Scott Air Force Base</t>
         </is>
       </c>
-      <c r="XQ1" s="1" t="inlineStr">
+      <c r="XR1" s="1" t="inlineStr">
         <is>
           <t>Seneca</t>
         </is>
       </c>
-      <c r="XR1" s="1" t="inlineStr">
+      <c r="XS1" s="1" t="inlineStr">
         <is>
           <t>Serena</t>
         </is>
       </c>
-      <c r="XS1" s="1" t="inlineStr">
+      <c r="XT1" s="1" t="inlineStr">
         <is>
           <t>Sesser</t>
         </is>
       </c>
-      <c r="XT1" s="1" t="inlineStr">
+      <c r="XU1" s="1" t="inlineStr">
         <is>
           <t>Shabbona</t>
         </is>
       </c>
-      <c r="XU1" s="1" t="inlineStr">
+      <c r="XV1" s="1" t="inlineStr">
         <is>
           <t>Shannon</t>
         </is>
       </c>
-      <c r="XV1" s="1" t="inlineStr">
+      <c r="XW1" s="1" t="inlineStr">
         <is>
           <t>Shelbyville</t>
         </is>
       </c>
-      <c r="XW1" s="1" t="inlineStr">
+      <c r="XX1" s="1" t="inlineStr">
         <is>
           <t>Sheridan</t>
         </is>
       </c>
-      <c r="XX1" s="1" t="inlineStr">
+      <c r="XY1" s="1" t="inlineStr">
         <is>
           <t>Sherman</t>
         </is>
       </c>
-      <c r="XY1" s="1" t="inlineStr">
+      <c r="XZ1" s="1" t="inlineStr">
         <is>
           <t>Sherrard</t>
         </is>
       </c>
-      <c r="XZ1" s="1" t="inlineStr">
+      <c r="YA1" s="1" t="inlineStr">
         <is>
           <t>Shiloh</t>
         </is>
       </c>
-      <c r="YA1" s="1" t="inlineStr">
+      <c r="YB1" s="1" t="inlineStr">
         <is>
           <t>Shipman</t>
         </is>
       </c>
-      <c r="YB1" s="1" t="inlineStr">
+      <c r="YC1" s="1" t="inlineStr">
         <is>
           <t>Shirland</t>
         </is>
       </c>
-      <c r="YC1" s="1" t="inlineStr">
+      <c r="YD1" s="1" t="inlineStr">
         <is>
           <t>Shorewood</t>
         </is>
       </c>
-      <c r="YD1" s="1" t="inlineStr">
+      <c r="YE1" s="1" t="inlineStr">
         <is>
           <t>Sidell</t>
         </is>
       </c>
-      <c r="YE1" s="1" t="inlineStr">
+      <c r="YF1" s="1" t="inlineStr">
         <is>
           <t>Silvis</t>
         </is>
       </c>
-      <c r="YF1" s="1" t="inlineStr">
+      <c r="YG1" s="1" t="inlineStr">
         <is>
           <t>Skokie</t>
         </is>
       </c>
-      <c r="YG1" s="1" t="inlineStr">
+      <c r="YH1" s="1" t="inlineStr">
         <is>
           <t>Sleepy Hollow</t>
         </is>
       </c>
-      <c r="YH1" s="1" t="inlineStr">
+      <c r="YI1" s="1" t="inlineStr">
         <is>
           <t>Smithton</t>
         </is>
       </c>
-      <c r="YI1" s="1" t="inlineStr">
+      <c r="YJ1" s="1" t="inlineStr">
         <is>
           <t>Somonauk</t>
         </is>
       </c>
-      <c r="YJ1" s="1" t="inlineStr">
+      <c r="YK1" s="1" t="inlineStr">
         <is>
           <t>South Barrington</t>
         </is>
       </c>
-      <c r="YK1" s="1" t="inlineStr">
+      <c r="YL1" s="1" t="inlineStr">
         <is>
           <t>South Beloit</t>
         </is>
       </c>
-      <c r="YL1" s="1" t="inlineStr">
+      <c r="YM1" s="1" t="inlineStr">
         <is>
           <t>South Chicago Heights</t>
         </is>
       </c>
-      <c r="YM1" s="1" t="inlineStr">
+      <c r="YN1" s="1" t="inlineStr">
         <is>
           <t>South Elgin</t>
         </is>
       </c>
-      <c r="YN1" s="1" t="inlineStr">
+      <c r="YO1" s="1" t="inlineStr">
         <is>
           <t>South Holland</t>
         </is>
       </c>
-      <c r="YO1" s="1" t="inlineStr">
+      <c r="YP1" s="1" t="inlineStr">
         <is>
           <t>South Jacksonville</t>
         </is>
       </c>
-      <c r="YP1" s="1" t="inlineStr">
+      <c r="YQ1" s="1" t="inlineStr">
         <is>
           <t>South Pekin</t>
         </is>
       </c>
-      <c r="YQ1" s="1" t="inlineStr">
+      <c r="YR1" s="1" t="inlineStr">
         <is>
           <t>South Roxana</t>
         </is>
       </c>
-      <c r="YR1" s="1" t="inlineStr">
+      <c r="YS1" s="1" t="inlineStr">
         <is>
           <t>Sparland</t>
         </is>
       </c>
-      <c r="YS1" s="1" t="inlineStr">
+      <c r="YT1" s="1" t="inlineStr">
         <is>
           <t>Sparta</t>
         </is>
       </c>
-      <c r="YT1" s="1" t="inlineStr">
+      <c r="YU1" s="1" t="inlineStr">
         <is>
           <t>Spring Grove</t>
         </is>
       </c>
-      <c r="YU1" s="1" t="inlineStr">
+      <c r="YV1" s="1" t="inlineStr">
         <is>
           <t>Spring Valley</t>
         </is>
       </c>
-      <c r="YV1" s="1" t="inlineStr">
+      <c r="YW1" s="1" t="inlineStr">
         <is>
           <t>Springfield</t>
         </is>
       </c>
-      <c r="YW1" s="1" t="inlineStr">
+      <c r="YX1" s="1" t="inlineStr">
         <is>
           <t>Stanford</t>
         </is>
       </c>
-      <c r="YX1" s="1" t="inlineStr">
+      <c r="YY1" s="1" t="inlineStr">
         <is>
           <t>Staunton</t>
         </is>
       </c>
-      <c r="YY1" s="1" t="inlineStr">
+      <c r="YZ1" s="1" t="inlineStr">
         <is>
           <t>Steeleville</t>
         </is>
       </c>
-      <c r="YZ1" s="1" t="inlineStr">
+      <c r="ZA1" s="1" t="inlineStr">
         <is>
           <t>Steger</t>
         </is>
       </c>
-      <c r="ZA1" s="1" t="inlineStr">
+      <c r="ZB1" s="1" t="inlineStr">
         <is>
           <t>Sterling</t>
         </is>
       </c>
-      <c r="ZB1" s="1" t="inlineStr">
+      <c r="ZC1" s="1" t="inlineStr">
         <is>
           <t>Steward</t>
         </is>
       </c>
-      <c r="ZC1" s="1" t="inlineStr">
+      <c r="ZD1" s="1" t="inlineStr">
         <is>
           <t>Stickney</t>
         </is>
       </c>
-      <c r="ZD1" s="1" t="inlineStr">
+      <c r="ZE1" s="1" t="inlineStr">
         <is>
           <t>Stillman Valley</t>
         </is>
       </c>
-      <c r="ZE1" s="1" t="inlineStr">
+      <c r="ZF1" s="1" t="inlineStr">
         <is>
           <t>Stockton</t>
         </is>
       </c>
-      <c r="ZF1" s="1" t="inlineStr">
+      <c r="ZG1" s="1" t="inlineStr">
         <is>
           <t>Stone Park</t>
         </is>
       </c>
-      <c r="ZG1" s="1" t="inlineStr">
+      <c r="ZH1" s="1" t="inlineStr">
         <is>
           <t>Strasburg</t>
         </is>
       </c>
-      <c r="ZH1" s="1" t="inlineStr">
+      <c r="ZI1" s="1" t="inlineStr">
         <is>
           <t>Streamwood</t>
         </is>
       </c>
-      <c r="ZI1" s="1" t="inlineStr">
+      <c r="ZJ1" s="1" t="inlineStr">
         <is>
           <t>Streator</t>
         </is>
       </c>
-      <c r="ZJ1" s="1" t="inlineStr">
+      <c r="ZK1" s="1" t="inlineStr">
         <is>
           <t>Stronghurst</t>
         </is>
       </c>
-      <c r="ZK1" s="1" t="inlineStr">
+      <c r="ZL1" s="1" t="inlineStr">
         <is>
           <t>Sugar Grove</t>
         </is>
       </c>
-      <c r="ZL1" s="1" t="inlineStr">
+      <c r="ZM1" s="1" t="inlineStr">
         <is>
           <t>Sullivan</t>
         </is>
       </c>
-      <c r="ZM1" s="1" t="inlineStr">
+      <c r="ZN1" s="1" t="inlineStr">
         <is>
           <t>Summit</t>
         </is>
       </c>
-      <c r="ZN1" s="1" t="inlineStr">
+      <c r="ZO1" s="1" t="inlineStr">
         <is>
           <t>Sumner</t>
         </is>
       </c>
-      <c r="ZO1" s="1" t="inlineStr">
+      <c r="ZP1" s="1" t="inlineStr">
         <is>
           <t>Swansea</t>
         </is>
       </c>
-      <c r="ZP1" s="1" t="inlineStr">
+      <c r="ZQ1" s="1" t="inlineStr">
         <is>
           <t>Sycamore</t>
         </is>
       </c>
-      <c r="ZQ1" s="1" t="inlineStr">
+      <c r="ZR1" s="1" t="inlineStr">
         <is>
           <t>Table Grove</t>
         </is>
       </c>
-      <c r="ZR1" s="1" t="inlineStr">
+      <c r="ZS1" s="1" t="inlineStr">
         <is>
           <t>Tamms</t>
         </is>
       </c>
-      <c r="ZS1" s="1" t="inlineStr">
+      <c r="ZT1" s="1" t="inlineStr">
         <is>
           <t>Tampico</t>
         </is>
       </c>
-      <c r="ZT1" s="1" t="inlineStr">
+      <c r="ZU1" s="1" t="inlineStr">
         <is>
           <t>Taylor Ridge</t>
         </is>
       </c>
-      <c r="ZU1" s="1" t="inlineStr">
+      <c r="ZV1" s="1" t="inlineStr">
         <is>
           <t>Taylorville</t>
         </is>
       </c>
-      <c r="ZV1" s="1" t="inlineStr">
+      <c r="ZW1" s="1" t="inlineStr">
         <is>
           <t>Teutopolis</t>
         </is>
       </c>
-      <c r="ZW1" s="1" t="inlineStr">
+      <c r="ZX1" s="1" t="inlineStr">
         <is>
           <t>Thawville</t>
         </is>
       </c>
-      <c r="ZX1" s="1" t="inlineStr">
+      <c r="ZY1" s="1" t="inlineStr">
         <is>
           <t>Thomasboro</t>
         </is>
       </c>
-      <c r="ZY1" s="1" t="inlineStr">
+      <c r="ZZ1" s="1" t="inlineStr">
         <is>
           <t>Thompsonville</t>
         </is>
       </c>
-      <c r="ZZ1" s="1" t="inlineStr">
+      <c r="AAA1" s="1" t="inlineStr">
         <is>
           <t>Tinley Park</t>
         </is>
       </c>
-      <c r="AAA1" s="1" t="inlineStr">
+      <c r="AAB1" s="1" t="inlineStr">
         <is>
           <t>Toledo</t>
         </is>
       </c>
-      <c r="AAB1" s="1" t="inlineStr">
+      <c r="AAC1" s="1" t="inlineStr">
         <is>
           <t>Tolono</t>
         </is>
       </c>
-      <c r="AAC1" s="1" t="inlineStr">
+      <c r="AAD1" s="1" t="inlineStr">
         <is>
           <t>Toluca</t>
         </is>
       </c>
-      <c r="AAD1" s="1" t="inlineStr">
+      <c r="AAE1" s="1" t="inlineStr">
         <is>
           <t>Tonica</t>
         </is>
       </c>
-      <c r="AAE1" s="1" t="inlineStr">
+      <c r="AAF1" s="1" t="inlineStr">
         <is>
           <t>Toulon</t>
         </is>
       </c>
-      <c r="AAF1" s="1" t="inlineStr">
+      <c r="AAG1" s="1" t="inlineStr">
         <is>
           <t>Towanda</t>
         </is>
       </c>
-      <c r="AAG1" s="1" t="inlineStr">
+      <c r="AAH1" s="1" t="inlineStr">
         <is>
           <t>Tremont</t>
         </is>
       </c>
-      <c r="AAH1" s="1" t="inlineStr">
+      <c r="AAI1" s="1" t="inlineStr">
         <is>
           <t>Trenton</t>
         </is>
       </c>
-      <c r="AAI1" s="1" t="inlineStr">
+      <c r="AAJ1" s="1" t="inlineStr">
         <is>
           <t>Troy</t>
         </is>
       </c>
-      <c r="AAJ1" s="1" t="inlineStr">
+      <c r="AAK1" s="1" t="inlineStr">
         <is>
           <t>Tunnel Hill</t>
         </is>
       </c>
-      <c r="AAK1" s="1" t="inlineStr">
+      <c r="AAL1" s="1" t="inlineStr">
         <is>
           <t>Tuscola</t>
         </is>
       </c>
-      <c r="AAL1" s="1" t="inlineStr">
+      <c r="AAM1" s="1" t="inlineStr">
         <is>
           <t>Ullin</t>
         </is>
       </c>
-      <c r="AAM1" s="1" t="inlineStr">
+      <c r="AAN1" s="1" t="inlineStr">
         <is>
           <t>University Park</t>
         </is>
       </c>
-      <c r="AAN1" s="1" t="inlineStr">
+      <c r="AAO1" s="1" t="inlineStr">
         <is>
           <t>Urbana</t>
         </is>
       </c>
-      <c r="AAO1" s="1" t="inlineStr">
+      <c r="AAP1" s="1" t="inlineStr">
         <is>
           <t>Utica</t>
         </is>
       </c>
-      <c r="AAP1" s="1" t="inlineStr">
+      <c r="AAQ1" s="1" t="inlineStr">
         <is>
           <t>Valmeyer</t>
         </is>
       </c>
-      <c r="AAQ1" s="1" t="inlineStr">
+      <c r="AAR1" s="1" t="inlineStr">
         <is>
           <t>Vandalia</t>
         </is>
       </c>
-      <c r="AAR1" s="1" t="inlineStr">
+      <c r="AAS1" s="1" t="inlineStr">
         <is>
           <t>Varna</t>
         </is>
       </c>
-      <c r="AAS1" s="1" t="inlineStr">
+      <c r="AAT1" s="1" t="inlineStr">
         <is>
           <t>Venice</t>
         </is>
       </c>
-      <c r="AAT1" s="1" t="inlineStr">
+      <c r="AAU1" s="1" t="inlineStr">
         <is>
           <t>Vergennes</t>
         </is>
       </c>
-      <c r="AAU1" s="1" t="inlineStr">
+      <c r="AAV1" s="1" t="inlineStr">
         <is>
           <t>Vernon Hills</t>
         </is>
       </c>
-      <c r="AAV1" s="1" t="inlineStr">
+      <c r="AAW1" s="1" t="inlineStr">
         <is>
           <t>Vienna</t>
         </is>
       </c>
-      <c r="AAW1" s="1" t="inlineStr">
+      <c r="AAX1" s="1" t="inlineStr">
         <is>
           <t>Villa Grove</t>
         </is>
       </c>
-      <c r="AAX1" s="1" t="inlineStr">
+      <c r="AAY1" s="1" t="inlineStr">
         <is>
           <t>Villa Park</t>
         </is>
       </c>
-      <c r="AAY1" s="1" t="inlineStr">
+      <c r="AAZ1" s="1" t="inlineStr">
         <is>
           <t>Viola</t>
         </is>
       </c>
-      <c r="AAZ1" s="1" t="inlineStr">
+      <c r="ABA1" s="1" t="inlineStr">
         <is>
           <t>Virden</t>
         </is>
       </c>
-      <c r="ABA1" s="1" t="inlineStr">
+      <c r="ABB1" s="1" t="inlineStr">
         <is>
           <t>Virginia</t>
         </is>
       </c>
-      <c r="ABB1" s="1" t="inlineStr">
+      <c r="ABC1" s="1" t="inlineStr">
         <is>
           <t>Wadsworth</t>
         </is>
       </c>
-      <c r="ABC1" s="1" t="inlineStr">
+      <c r="ABD1" s="1" t="inlineStr">
         <is>
           <t>Walnut</t>
         </is>
       </c>
-      <c r="ABD1" s="1" t="inlineStr">
+      <c r="ABE1" s="1" t="inlineStr">
         <is>
           <t>Waltonville</t>
         </is>
       </c>
-      <c r="ABE1" s="1" t="inlineStr">
+      <c r="ABF1" s="1" t="inlineStr">
         <is>
           <t>Warren</t>
         </is>
       </c>
-      <c r="ABF1" s="1" t="inlineStr">
+      <c r="ABG1" s="1" t="inlineStr">
         <is>
           <t>Warrensburg</t>
         </is>
       </c>
-      <c r="ABG1" s="1" t="inlineStr">
+      <c r="ABH1" s="1" t="inlineStr">
         <is>
           <t>Warrenville</t>
         </is>
       </c>
-      <c r="ABH1" s="1" t="inlineStr">
+      <c r="ABI1" s="1" t="inlineStr">
         <is>
           <t>Washburn</t>
         </is>
       </c>
-      <c r="ABI1" s="1" t="inlineStr">
+      <c r="ABJ1" s="1" t="inlineStr">
         <is>
           <t>Washington</t>
         </is>
       </c>
-      <c r="ABJ1" s="1" t="inlineStr">
+      <c r="ABK1" s="1" t="inlineStr">
         <is>
           <t>Washington Pk</t>
         </is>
       </c>
-      <c r="ABK1" s="1" t="inlineStr">
+      <c r="ABL1" s="1" t="inlineStr">
         <is>
           <t>Waterloo</t>
         </is>
       </c>
-      <c r="ABL1" s="1" t="inlineStr">
+      <c r="ABM1" s="1" t="inlineStr">
         <is>
           <t>Waterman</t>
         </is>
       </c>
-      <c r="ABM1" s="1" t="inlineStr">
+      <c r="ABN1" s="1" t="inlineStr">
         <is>
           <t>Watseka</t>
         </is>
       </c>
-      <c r="ABN1" s="1" t="inlineStr">
+      <c r="ABO1" s="1" t="inlineStr">
         <is>
           <t>Wauconda</t>
         </is>
       </c>
-      <c r="ABO1" s="1" t="inlineStr">
+      <c r="ABP1" s="1" t="inlineStr">
         <is>
           <t>Waukegan</t>
         </is>
       </c>
-      <c r="ABP1" s="1" t="inlineStr">
+      <c r="ABQ1" s="1" t="inlineStr">
         <is>
           <t>Waverly</t>
         </is>
       </c>
-      <c r="ABQ1" s="1" t="inlineStr">
+      <c r="ABR1" s="1" t="inlineStr">
         <is>
           <t>Wayne</t>
         </is>
       </c>
-      <c r="ABR1" s="1" t="inlineStr">
+      <c r="ABS1" s="1" t="inlineStr">
         <is>
           <t>Wayne City</t>
         </is>
       </c>
-      <c r="ABS1" s="1" t="inlineStr">
+      <c r="ABT1" s="1" t="inlineStr">
         <is>
           <t>Weldon</t>
         </is>
       </c>
-      <c r="ABT1" s="1" t="inlineStr">
+      <c r="ABU1" s="1" t="inlineStr">
         <is>
           <t>Wenona</t>
         </is>
       </c>
-      <c r="ABU1" s="1" t="inlineStr">
+      <c r="ABV1" s="1" t="inlineStr">
         <is>
           <t>West Chicago</t>
         </is>
       </c>
-      <c r="ABV1" s="1" t="inlineStr">
+      <c r="ABW1" s="1" t="inlineStr">
         <is>
           <t>West Dundee</t>
         </is>
       </c>
-      <c r="ABW1" s="1" t="inlineStr">
+      <c r="ABX1" s="1" t="inlineStr">
         <is>
           <t>West Frankfort</t>
         </is>
       </c>
-      <c r="ABX1" s="1" t="inlineStr">
+      <c r="ABY1" s="1" t="inlineStr">
         <is>
           <t>West Peoria</t>
         </is>
       </c>
-      <c r="ABY1" s="1" t="inlineStr">
+      <c r="ABZ1" s="1" t="inlineStr">
         <is>
           <t>Westchester</t>
         </is>
       </c>
-      <c r="ABZ1" s="1" t="inlineStr">
+      <c r="ACA1" s="1" t="inlineStr">
         <is>
           <t>Westmont</t>
         </is>
       </c>
-      <c r="ACA1" s="1" t="inlineStr">
+      <c r="ACB1" s="1" t="inlineStr">
         <is>
           <t>Westville</t>
         </is>
       </c>
-      <c r="ACB1" s="1" t="inlineStr">
+      <c r="ACC1" s="1" t="inlineStr">
         <is>
           <t>Wheaton</t>
         </is>
       </c>
-      <c r="ACC1" s="1" t="inlineStr">
+      <c r="ACD1" s="1" t="inlineStr">
         <is>
           <t>Wheeling</t>
         </is>
       </c>
-      <c r="ACD1" s="1" t="inlineStr">
+      <c r="ACE1" s="1" t="inlineStr">
         <is>
           <t>White Hall</t>
         </is>
       </c>
-      <c r="ACE1" s="1" t="inlineStr">
+      <c r="ACF1" s="1" t="inlineStr">
         <is>
           <t>White Heath</t>
         </is>
       </c>
-      <c r="ACF1" s="1" t="inlineStr">
+      <c r="ACG1" s="1" t="inlineStr">
         <is>
           <t>Williamsfield</t>
         </is>
       </c>
-      <c r="ACG1" s="1" t="inlineStr">
+      <c r="ACH1" s="1" t="inlineStr">
         <is>
           <t>Williamsville</t>
         </is>
       </c>
-      <c r="ACH1" s="1" t="inlineStr">
+      <c r="ACI1" s="1" t="inlineStr">
         <is>
           <t>Willow Springs</t>
         </is>
       </c>
-      <c r="ACI1" s="1" t="inlineStr">
+      <c r="ACJ1" s="1" t="inlineStr">
         <is>
           <t>Willowbrook</t>
         </is>
       </c>
-      <c r="ACJ1" s="1" t="inlineStr">
+      <c r="ACK1" s="1" t="inlineStr">
         <is>
           <t>Wilmette</t>
         </is>
       </c>
-      <c r="ACK1" s="1" t="inlineStr">
+      <c r="ACL1" s="1" t="inlineStr">
         <is>
           <t>Wilmington</t>
         </is>
       </c>
-      <c r="ACL1" s="1" t="inlineStr">
+      <c r="ACM1" s="1" t="inlineStr">
         <is>
           <t>Winchester</t>
         </is>
       </c>
-      <c r="ACM1" s="1" t="inlineStr">
+      <c r="ACN1" s="1" t="inlineStr">
         <is>
           <t>Windsor</t>
         </is>
       </c>
-      <c r="ACN1" s="1" t="inlineStr">
+      <c r="ACO1" s="1" t="inlineStr">
         <is>
           <t>Winfield</t>
         </is>
       </c>
-      <c r="ACO1" s="1" t="inlineStr">
+      <c r="ACP1" s="1" t="inlineStr">
         <is>
           <t>Winnebago</t>
         </is>
       </c>
-      <c r="ACP1" s="1" t="inlineStr">
+      <c r="ACQ1" s="1" t="inlineStr">
         <is>
           <t>Winnetka</t>
         </is>
       </c>
-      <c r="ACQ1" s="1" t="inlineStr">
+      <c r="ACR1" s="1" t="inlineStr">
         <is>
           <t>Winthrop Harbor</t>
         </is>
       </c>
-      <c r="ACR1" s="1" t="inlineStr">
+      <c r="ACS1" s="1" t="inlineStr">
         <is>
           <t>Wolf Lake</t>
         </is>
       </c>
-      <c r="ACS1" s="1" t="inlineStr">
+      <c r="ACT1" s="1" t="inlineStr">
         <is>
           <t>Wonder Lake</t>
         </is>
       </c>
-      <c r="ACT1" s="1" t="inlineStr">
+      <c r="ACU1" s="1" t="inlineStr">
         <is>
           <t>Wood Dale</t>
         </is>
       </c>
-      <c r="ACU1" s="1" t="inlineStr">
+      <c r="ACV1" s="1" t="inlineStr">
         <is>
           <t>Wood River</t>
         </is>
       </c>
-      <c r="ACV1" s="1" t="inlineStr">
+      <c r="ACW1" s="1" t="inlineStr">
         <is>
           <t>Woodhull</t>
         </is>
       </c>
-      <c r="ACW1" s="1" t="inlineStr">
+      <c r="ACX1" s="1" t="inlineStr">
         <is>
           <t>Woodlawn</t>
         </is>
       </c>
-      <c r="ACX1" s="1" t="inlineStr">
+      <c r="ACY1" s="1" t="inlineStr">
         <is>
           <t>Woodridge</t>
         </is>
       </c>
-      <c r="ACY1" s="1" t="inlineStr">
+      <c r="ACZ1" s="1" t="inlineStr">
         <is>
           <t>Woodstock</t>
         </is>
       </c>
-      <c r="ACZ1" s="1" t="inlineStr">
+      <c r="ADA1" s="1" t="inlineStr">
         <is>
           <t>Worden</t>
         </is>
       </c>
-      <c r="ADA1" s="1" t="inlineStr">
+      <c r="ADB1" s="1" t="inlineStr">
         <is>
           <t>Worth</t>
         </is>
       </c>
-      <c r="ADB1" s="1" t="inlineStr">
+      <c r="ADC1" s="1" t="inlineStr">
         <is>
           <t>Wyanet</t>
         </is>
       </c>
-      <c r="ADC1" s="1" t="inlineStr">
+      <c r="ADD1" s="1" t="inlineStr">
         <is>
           <t>Wyoming</t>
         </is>
       </c>
-      <c r="ADD1" s="1" t="inlineStr">
+      <c r="ADE1" s="1" t="inlineStr">
         <is>
           <t>Yorkville</t>
         </is>
       </c>
-      <c r="ADE1" s="1" t="inlineStr">
+      <c r="ADF1" s="1" t="inlineStr">
         <is>
           <t>Zeigler</t>
         </is>
       </c>
-      <c r="ADF1" s="1" t="inlineStr">
+      <c r="ADG1" s="1" t="inlineStr">
         <is>
           <t>Zion</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t># of Discipline Incidents</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>107</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>1879</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>60</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>250</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>5</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>4480</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>8</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>102</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>54</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>5352</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>442</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>604</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>116</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>604</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>94</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>67</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>1303</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>42</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>195</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>30</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>4</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>34</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>7</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>59</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>78</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>6</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>35</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>18</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>23</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>286</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>35</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>5088</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>2</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>45</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>411</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>166</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>658</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>54</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2" t="n">
         <v>1112</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>948</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>468</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>4</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>190</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AT2" t="n">
         <v>74</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2" t="n">
         <v>3246</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AV2" t="n">
         <v>747</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AW2" t="n">
         <v>4091</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AX2" t="n">
         <v>24</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AY2" t="n">
         <v>1022</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AZ2" t="n">
         <v>9</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="BA2" t="n">
         <v>220</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BB2" t="n">
         <v>73</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BC2" t="n">
         <v>4053</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>818</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BE2" t="n">
         <v>30</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BF2" t="n">
         <v>21</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BG2" t="n">
         <v>264</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BH2" t="n">
         <v>172</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BI2" t="n">
         <v>180</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BJ2" t="n">
         <v>3077</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BK2" t="n">
         <v>823</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BL2" t="n">
         <v>34</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BM2" t="n">
         <v>30</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BN2" t="n">
         <v>14</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BO2" t="n">
         <v>1418</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BP2" t="n">
         <v>70</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BQ2" t="n">
         <v>11</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BR2" t="n">
         <v>20</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BS2" t="n">
         <v>1902</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BT2" t="n">
         <v>254</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BU2" t="n">
         <v>418</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BV2" t="n">
         <v>63</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BW2" t="n">
         <v>28</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BX2" t="n">
         <v>84</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BY2" t="n">
         <v>60</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BZ2" t="n">
         <v>24</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CA2" t="n">
         <v>10</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CB2" t="n">
         <v>68</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CC2" t="n">
         <v>41</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CD2" t="n">
         <v>21</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CE2" t="n">
         <v>46</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CF2" t="n">
         <v>16</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CG2" t="n">
         <v>4</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CH2" t="n">
         <v>341</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CI2" t="n">
         <v>194</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CJ2" t="n">
         <v>560</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CK2" t="n">
         <v>789</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CL2" t="n">
         <v>299</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CM2" t="n">
         <v>136</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CN2" t="n">
         <v>54</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CO2" t="n">
         <v>2023</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CP2" t="n">
         <v>168</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CQ2" t="n">
         <v>39</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CR2" t="n">
         <v>3626</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CS2" t="n">
         <v>222</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CT2" t="n">
         <v>126</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="CU2" t="n">
         <v>204</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="CV2" t="n">
         <v>182</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="CW2" t="n">
         <v>868</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="CX2" t="n">
         <v>5</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="CY2" t="n">
         <v>16</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="CZ2" t="n">
         <v>2736</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DA2" t="n">
         <v>312</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DB2" t="n">
         <v>5</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DC2" t="n">
         <v>164</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DD2" t="n">
         <v>686</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DE2" t="n">
         <v>135</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DF2" t="n">
         <v>1554</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="DG2" t="n">
         <v>264</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="DH2" t="n">
         <v>126</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="DI2" t="n">
         <v>424</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DJ2" t="n">
         <v>264</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DK2" t="n">
         <v>420</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DL2" t="n">
         <v>104</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DM2" t="n">
         <v>20</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DN2" t="n">
         <v>164</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DO2" t="n">
         <v>1142</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DP2" t="n">
         <v>1</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DQ2" t="n">
         <v>14</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DR2" t="n">
         <v>4349</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DS2" t="n">
         <v>4</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DT2" t="n">
         <v>314</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DU2" t="n">
         <v>705</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DV2" t="n">
         <v>552</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DW2" t="n">
         <v>1</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DX2" t="n">
         <v>7</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DY2" t="n">
         <v>4</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DZ2" t="n">
         <v>140</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>46979</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
         <v>2506</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
         <v>483</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="ED2" t="n">
         <v>238</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EE2" t="n">
         <v>602</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EF2" t="n">
         <v>56</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EG2" t="n">
         <v>202</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EH2" t="n">
         <v>12150</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EI2" t="n">
         <v>32</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EJ2" t="n">
         <v>12</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EK2" t="n">
         <v>10</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EL2" t="n">
         <v>168</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>23</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>412</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>254</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>7</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>138</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="ER2" t="n">
         <v>16</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="ES2" t="n">
         <v>6137</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="ET2" t="n">
         <v>156</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="EU2" t="n">
         <v>164</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EV2" t="n">
         <v>40</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="EW2" t="n">
         <v>81</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="EX2" t="n">
         <v>180</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="EY2" t="n">
         <v>472</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="EZ2" t="n">
         <v>6</v>
       </c>
-      <c r="EZ2" t="n">
+      <c r="FA2" t="n">
         <v>76</v>
       </c>
-      <c r="FA2" t="n">
+      <c r="FB2" t="n">
         <v>4</v>
       </c>
-      <c r="FB2" t="n">
+      <c r="FC2" t="n">
         <v>76</v>
       </c>
-      <c r="FC2" t="n">
+      <c r="FD2" t="n">
         <v>6</v>
       </c>
-      <c r="FD2" t="n">
+      <c r="FE2" t="n">
         <v>139</v>
       </c>
-      <c r="FE2" t="n">
+      <c r="FF2" t="n">
         <v>2793</v>
       </c>
-      <c r="FF2" t="n">
+      <c r="FG2" t="n">
         <v>92</v>
       </c>
-      <c r="FG2" t="n">
+      <c r="FH2" t="n">
         <v>2416</v>
       </c>
-      <c r="FH2" t="n">
+      <c r="FI2" t="n">
         <v>100</v>
       </c>
-      <c r="FI2" t="n">
+      <c r="FJ2" t="n">
         <v>13</v>
       </c>
-      <c r="FJ2" t="n">
+      <c r="FK2" t="n">
         <v>5</v>
       </c>
-      <c r="FK2" t="n">
+      <c r="FL2" t="n">
         <v>116</v>
       </c>
-      <c r="FL2" t="n">
+      <c r="FM2" t="n">
         <v>46</v>
       </c>
-      <c r="FM2" t="n">
+      <c r="FN2" t="n">
         <v>11</v>
       </c>
-      <c r="FN2" t="n">
+      <c r="FO2" t="n">
         <v>4008</v>
       </c>
-      <c r="FO2" t="n">
+      <c r="FP2" t="n">
         <v>737</v>
       </c>
-      <c r="FP2" t="n">
+      <c r="FQ2" t="n">
         <v>102</v>
       </c>
-      <c r="FQ2" t="n">
+      <c r="FR2" t="n">
         <v>32</v>
       </c>
-      <c r="FR2" t="n">
+      <c r="FS2" t="n">
         <v>2</v>
       </c>
-      <c r="FS2" t="n">
+      <c r="FT2" t="n">
         <v>280</v>
       </c>
-      <c r="FT2" t="n">
+      <c r="FU2" t="n">
         <v>28</v>
       </c>
-      <c r="FU2" t="n">
+      <c r="FV2" t="n">
         <v>9375</v>
       </c>
-      <c r="FV2" t="n">
+      <c r="FW2" t="n">
         <v>4</v>
       </c>
-      <c r="FW2" t="n">
+      <c r="FX2" t="n">
         <v>26</v>
       </c>
-      <c r="FX2" t="n">
+      <c r="FY2" t="n">
         <v>5670</v>
       </c>
-      <c r="FY2" t="n">
+      <c r="FZ2" t="n">
         <v>28</v>
       </c>
-      <c r="FZ2" t="n">
+      <c r="GA2" t="n">
         <v>687</v>
       </c>
-      <c r="GA2" t="n">
+      <c r="GB2" t="n">
         <v>8</v>
       </c>
-      <c r="GB2" t="n">
+      <c r="GC2" t="n">
         <v>22</v>
       </c>
-      <c r="GC2" t="n">
+      <c r="GD2" t="n">
         <v>14</v>
       </c>
-      <c r="GD2" t="n">
+      <c r="GE2" t="n">
         <v>79</v>
       </c>
-      <c r="GE2" t="n">
+      <c r="GF2" t="n">
         <v>1848</v>
       </c>
-      <c r="GF2" t="n">
+      <c r="GG2" t="n">
         <v>881</v>
       </c>
-      <c r="GG2" t="n">
+      <c r="GH2" t="n">
         <v>30</v>
       </c>
-      <c r="GH2" t="n">
+      <c r="GI2" t="n">
         <v>28</v>
       </c>
-      <c r="GI2" t="n">
+      <c r="GJ2" t="n">
         <v>950</v>
       </c>
-      <c r="GJ2" t="n">
+      <c r="GK2" t="n">
         <v>34</v>
       </c>
-      <c r="GK2" t="n">
+      <c r="GL2" t="n">
         <v>320</v>
       </c>
-      <c r="GL2" t="n">
+      <c r="GM2" t="n">
         <v>203</v>
       </c>
-      <c r="GM2" t="n">
+      <c r="GN2" t="n">
         <v>637</v>
       </c>
-      <c r="GN2" t="n">
+      <c r="GO2" t="n">
         <v>1250</v>
       </c>
-      <c r="GO2" t="n">
+      <c r="GP2" t="n">
         <v>174</v>
       </c>
-      <c r="GP2" t="n">
+      <c r="GQ2" t="n">
         <v>124</v>
       </c>
-      <c r="GQ2" t="n">
+      <c r="GR2" t="n">
         <v>1</v>
       </c>
-      <c r="GR2" t="n">
+      <c r="GS2" t="n">
         <v>67</v>
       </c>
-      <c r="GS2" t="n">
+      <c r="GT2" t="n">
         <v>14</v>
       </c>
-      <c r="GT2" t="n">
+      <c r="GU2" t="n">
         <v>120</v>
       </c>
-      <c r="GU2" t="n">
+      <c r="GV2" t="n">
         <v>874</v>
       </c>
-      <c r="GV2" t="n">
+      <c r="GW2" t="n">
         <v>2346</v>
       </c>
-      <c r="GW2" t="n">
+      <c r="GX2" t="n">
         <v>3392</v>
       </c>
-      <c r="GX2" t="n">
+      <c r="GY2" t="n">
         <v>1446</v>
       </c>
-      <c r="GY2" t="n">
+      <c r="GZ2" t="n">
         <v>280</v>
       </c>
-      <c r="GZ2" t="n">
+      <c r="HA2" t="n">
         <v>30</v>
       </c>
-      <c r="HA2" t="n">
+      <c r="HB2" t="n">
         <v>190</v>
       </c>
-      <c r="HB2" t="n">
+      <c r="HC2" t="n">
         <v>10702</v>
       </c>
-      <c r="HC2" t="n">
+      <c r="HD2" t="n">
         <v>318</v>
       </c>
-      <c r="HD2" t="n">
+      <c r="HE2" t="n">
         <v>522</v>
       </c>
-      <c r="HE2" t="n">
+      <c r="HF2" t="n">
         <v>326</v>
       </c>
-      <c r="HF2" t="n">
+      <c r="HG2" t="n">
         <v>161</v>
       </c>
-      <c r="HG2" t="n">
+      <c r="HH2" t="n">
         <v>845</v>
       </c>
-      <c r="HH2" t="n">
+      <c r="HI2" t="n">
         <v>56</v>
       </c>
-      <c r="HI2" t="n">
+      <c r="HJ2" t="n">
         <v>648</v>
       </c>
-      <c r="HJ2" t="n">
+      <c r="HK2" t="n">
         <v>42</v>
       </c>
-      <c r="HK2" t="n">
+      <c r="HL2" t="n">
         <v>167</v>
       </c>
-      <c r="HL2" t="n">
+      <c r="HM2" t="n">
         <v>786</v>
       </c>
-      <c r="HM2" t="n">
+      <c r="HN2" t="n">
         <v>386</v>
       </c>
-      <c r="HN2" t="n">
+      <c r="HO2" t="n">
         <v>26</v>
       </c>
-      <c r="HO2" t="n">
+      <c r="HP2" t="n">
         <v>240</v>
       </c>
-      <c r="HP2" t="n">
+      <c r="HQ2" t="n">
         <v>480</v>
       </c>
-      <c r="HQ2" t="n">
+      <c r="HR2" t="n">
         <v>534</v>
       </c>
-      <c r="HR2" t="n">
+      <c r="HS2" t="n">
         <v>17</v>
       </c>
-      <c r="HS2" t="n">
+      <c r="HT2" t="n">
         <v>46</v>
       </c>
-      <c r="HT2" t="n">
+      <c r="HU2" t="n">
         <v>1</v>
       </c>
-      <c r="HU2" t="n">
+      <c r="HV2" t="n">
         <v>298</v>
       </c>
-      <c r="HV2" t="n">
+      <c r="HW2" t="n">
         <v>6</v>
       </c>
-      <c r="HW2" t="n">
+      <c r="HX2" t="n">
         <v>116</v>
       </c>
-      <c r="HX2" t="n">
+      <c r="HY2" t="n">
         <v>59</v>
       </c>
-      <c r="HY2" t="n">
+      <c r="HZ2" t="n">
         <v>10</v>
       </c>
-      <c r="HZ2" t="n">
+      <c r="IA2" t="n">
         <v>86</v>
       </c>
-      <c r="IA2" t="n">
+      <c r="IB2" t="n">
         <v>2633</v>
       </c>
-      <c r="IB2" t="n">
+      <c r="IC2" t="n">
         <v>394</v>
       </c>
-      <c r="IC2" t="n">
+      <c r="ID2" t="n">
         <v>744</v>
       </c>
-      <c r="ID2" t="n">
+      <c r="IE2" t="n">
         <v>27</v>
       </c>
-      <c r="IE2" t="n">
+      <c r="IF2" t="n">
         <v>226</v>
       </c>
-      <c r="IF2" t="n">
+      <c r="IG2" t="n">
         <v>5</v>
       </c>
-      <c r="IG2" t="n">
+      <c r="IH2" t="n">
         <v>338</v>
       </c>
-      <c r="IH2" t="n">
+      <c r="II2" t="n">
         <v>32</v>
       </c>
-      <c r="II2" t="n">
+      <c r="IJ2" t="n">
         <v>275</v>
       </c>
-      <c r="IJ2" t="n">
+      <c r="IK2" t="n">
         <v>6</v>
       </c>
-      <c r="IK2" t="n">
+      <c r="IL2" t="n">
         <v>5</v>
       </c>
-      <c r="IL2" t="n">
+      <c r="IM2" t="n">
         <v>2210</v>
       </c>
-      <c r="IM2" t="n">
+      <c r="IN2" t="n">
         <v>260</v>
       </c>
-      <c r="IN2" t="n">
+      <c r="IO2" t="n">
         <v>3100</v>
       </c>
-      <c r="IO2" t="n">
+      <c r="IP2" t="n">
         <v>228</v>
       </c>
-      <c r="IP2" t="n">
+      <c r="IQ2" t="n">
         <v>4</v>
       </c>
-      <c r="IQ2" t="n">
+      <c r="IR2" t="n">
         <v>56</v>
       </c>
-      <c r="IR2" t="n">
+      <c r="IS2" t="n">
         <v>4</v>
       </c>
-      <c r="IS2" t="n">
+      <c r="IT2" t="n">
         <v>1110</v>
       </c>
-      <c r="IT2" t="n">
+      <c r="IU2" t="n">
         <v>116</v>
       </c>
-      <c r="IU2" t="n">
+      <c r="IV2" t="n">
         <v>8</v>
       </c>
-      <c r="IV2" t="n">
+      <c r="IW2" t="n">
         <v>322</v>
       </c>
-      <c r="IW2" t="n">
+      <c r="IX2" t="n">
         <v>638</v>
       </c>
-      <c r="IX2" t="n">
+      <c r="IY2" t="n">
         <v>118</v>
       </c>
-      <c r="IY2" t="n">
+      <c r="IZ2" t="n">
         <v>516</v>
       </c>
-      <c r="IZ2" t="n">
+      <c r="JA2" t="n">
         <v>8</v>
       </c>
-      <c r="JA2" t="n">
+      <c r="JB2" t="n">
         <v>4</v>
       </c>
-      <c r="JB2" t="n">
+      <c r="JC2" t="n">
         <v>72</v>
       </c>
-      <c r="JC2" t="n">
+      <c r="JD2" t="n">
         <v>116</v>
       </c>
-      <c r="JD2" t="n">
+      <c r="JE2" t="n">
         <v>24</v>
       </c>
-      <c r="JE2" t="n">
+      <c r="JF2" t="n">
         <v>91</v>
       </c>
-      <c r="JF2" t="n">
+      <c r="JG2" t="n">
         <v>394</v>
       </c>
-      <c r="JG2" t="n">
+      <c r="JH2" t="n">
         <v>45</v>
       </c>
-      <c r="JH2" t="n">
+      <c r="JI2" t="n">
         <v>101</v>
       </c>
-      <c r="JI2" t="n">
+      <c r="JJ2" t="n">
         <v>100</v>
       </c>
-      <c r="JJ2" t="n">
+      <c r="JK2" t="n">
         <v>26</v>
       </c>
-      <c r="JK2" t="n">
+      <c r="JL2" t="n">
         <v>547</v>
       </c>
-      <c r="JL2" t="n">
+      <c r="JM2" t="n">
         <v>16</v>
       </c>
-      <c r="JM2" t="n">
+      <c r="JN2" t="n">
         <v>685</v>
       </c>
-      <c r="JN2" t="n">
+      <c r="JO2" t="n">
         <v>437</v>
       </c>
-      <c r="JO2" t="n">
+      <c r="JP2" t="n">
         <v>121</v>
       </c>
-      <c r="JP2" t="n">
+      <c r="JQ2" t="n">
         <v>90</v>
       </c>
-      <c r="JQ2" t="n">
+      <c r="JR2" t="n">
         <v>10</v>
       </c>
-      <c r="JR2" t="n">
+      <c r="JS2" t="n">
         <v>1</v>
       </c>
-      <c r="JS2" t="n">
+      <c r="JT2" t="n">
         <v>3</v>
       </c>
-      <c r="JT2" t="n">
+      <c r="JU2" t="n">
         <v>6</v>
       </c>
-      <c r="JU2" t="n">
+      <c r="JV2" t="n">
         <v>1047</v>
       </c>
-      <c r="JV2" t="n">
+      <c r="JW2" t="n">
         <v>10</v>
       </c>
-      <c r="JW2" t="n">
+      <c r="JX2" t="n">
         <v>381</v>
       </c>
-      <c r="JX2" t="n">
+      <c r="JY2" t="n">
         <v>990</v>
       </c>
-      <c r="JY2" t="n">
+      <c r="JZ2" t="n">
         <v>42</v>
       </c>
-      <c r="JZ2" t="n">
+      <c r="KA2" t="n">
         <v>57</v>
       </c>
-      <c r="KA2" t="n">
+      <c r="KB2" t="n">
         <v>76</v>
       </c>
-      <c r="KB2" t="n">
+      <c r="KC2" t="n">
         <v>26</v>
       </c>
-      <c r="KC2" t="n">
+      <c r="KD2" t="n">
         <v>4</v>
       </c>
-      <c r="KD2" t="n">
+      <c r="KE2" t="n">
         <v>461</v>
       </c>
-      <c r="KE2" t="n">
+      <c r="KF2" t="n">
         <v>2</v>
       </c>
-      <c r="KF2" t="n">
+      <c r="KG2" t="n">
         <v>6</v>
       </c>
-      <c r="KG2" t="n">
+      <c r="KH2" t="n">
         <v>1666</v>
       </c>
-      <c r="KH2" t="n">
+      <c r="KI2" t="n">
         <v>1</v>
       </c>
-      <c r="KI2" t="n">
+      <c r="KJ2" t="n">
         <v>96</v>
       </c>
-      <c r="KJ2" t="n">
+      <c r="KK2" t="n">
         <v>669</v>
       </c>
-      <c r="KK2" t="n">
+      <c r="KL2" t="n">
         <v>16</v>
       </c>
-      <c r="KL2" t="n">
+      <c r="KM2" t="n">
         <v>10</v>
       </c>
-      <c r="KM2" t="n">
+      <c r="KN2" t="n">
         <v>456</v>
       </c>
-      <c r="KN2" t="n">
+      <c r="KO2" t="n">
         <v>38</v>
       </c>
-      <c r="KO2" t="n">
+      <c r="KP2" t="n">
         <v>818</v>
       </c>
-      <c r="KP2" t="n">
+      <c r="KQ2" t="n">
         <v>9</v>
       </c>
-      <c r="KQ2" t="n">
+      <c r="KR2" t="n">
         <v>2</v>
       </c>
-      <c r="KR2" t="n">
+      <c r="KS2" t="n">
         <v>770</v>
       </c>
-      <c r="KS2" t="n">
+      <c r="KT2" t="n">
         <v>1202</v>
       </c>
-      <c r="KT2" t="n">
+      <c r="KU2" t="n">
         <v>48</v>
       </c>
-      <c r="KU2" t="n">
+      <c r="KV2" t="n">
         <v>228</v>
       </c>
-      <c r="KV2" t="n">
+      <c r="KW2" t="n">
         <v>76</v>
       </c>
-      <c r="KW2" t="n">
+      <c r="KX2" t="n">
         <v>265</v>
       </c>
-      <c r="KX2" t="n">
+      <c r="KY2" t="n">
         <v>90</v>
       </c>
-      <c r="KY2" t="n">
+      <c r="KZ2" t="n">
         <v>3</v>
       </c>
-      <c r="KZ2" t="n">
+      <c r="LA2" t="n">
         <v>78</v>
       </c>
-      <c r="LA2" t="n">
+      <c r="LB2" t="n">
         <v>8</v>
       </c>
-      <c r="LB2" t="n">
+      <c r="LC2" t="n">
         <v>470</v>
       </c>
-      <c r="LC2" t="n">
+      <c r="LD2" t="n">
         <v>116</v>
       </c>
-      <c r="LD2" t="n">
+      <c r="LE2" t="n">
         <v>162</v>
       </c>
-      <c r="LE2" t="n">
+      <c r="LF2" t="n">
         <v>183</v>
       </c>
-      <c r="LF2" t="n">
+      <c r="LG2" t="n">
         <v>110</v>
       </c>
-      <c r="LG2" t="n">
+      <c r="LH2" t="n">
         <v>41</v>
       </c>
-      <c r="LH2" t="n">
+      <c r="LI2" t="n">
         <v>37</v>
       </c>
-      <c r="LI2" t="n">
+      <c r="LJ2" t="n">
         <v>918</v>
       </c>
-      <c r="LJ2" t="n">
+      <c r="LK2" t="n">
         <v>456</v>
       </c>
-      <c r="LK2" t="n">
+      <c r="LL2" t="n">
         <v>25</v>
       </c>
-      <c r="LL2" t="n">
+      <c r="LM2" t="n">
         <v>1151</v>
       </c>
-      <c r="LM2" t="n">
+      <c r="LN2" t="n">
         <v>2</v>
       </c>
-      <c r="LN2" t="n">
+      <c r="LO2" t="n">
         <v>500</v>
       </c>
-      <c r="LO2" t="n">
+      <c r="LP2" t="n">
         <v>18</v>
       </c>
-      <c r="LP2" t="n">
+      <c r="LQ2" t="n">
         <v>520</v>
       </c>
-      <c r="LQ2" t="n">
+      <c r="LR2" t="n">
         <v>7</v>
       </c>
-      <c r="LR2" t="n">
+      <c r="LS2" t="n">
         <v>330</v>
       </c>
-      <c r="LS2" t="n">
+      <c r="LT2" t="n">
         <v>1224</v>
       </c>
-      <c r="LT2" t="n">
+      <c r="LU2" t="n">
         <v>70</v>
       </c>
-      <c r="LU2" t="n">
+      <c r="LV2" t="n">
         <v>5</v>
       </c>
-      <c r="LV2" t="n">
+      <c r="LW2" t="n">
         <v>174</v>
       </c>
-      <c r="LW2" t="n">
+      <c r="LX2" t="n">
         <v>125</v>
       </c>
-      <c r="LX2" t="n">
+      <c r="LY2" t="n">
         <v>74</v>
       </c>
-      <c r="LY2" t="n">
+      <c r="LZ2" t="n">
         <v>73</v>
       </c>
-      <c r="LZ2" t="n">
+      <c r="MA2" t="n">
         <v>11</v>
       </c>
-      <c r="MA2" t="n">
+      <c r="MB2" t="n">
         <v>170</v>
       </c>
-      <c r="MB2" t="n">
+      <c r="MC2" t="n">
         <v>20</v>
       </c>
-      <c r="MC2" t="n">
+      <c r="MD2" t="n">
         <v>80</v>
       </c>
-      <c r="MD2" t="n">
+      <c r="ME2" t="n">
         <v>60</v>
       </c>
-      <c r="ME2" t="n">
+      <c r="MF2" t="n">
         <v>2680</v>
       </c>
-      <c r="MF2" t="n">
+      <c r="MG2" t="n">
         <v>201</v>
       </c>
-      <c r="MG2" t="n">
+      <c r="MH2" t="n">
         <v>164</v>
       </c>
-      <c r="MH2" t="n">
+      <c r="MI2" t="n">
         <v>310</v>
       </c>
-      <c r="MI2" t="n">
+      <c r="MJ2" t="n">
         <v>9340</v>
       </c>
-      <c r="MJ2" t="n">
+      <c r="MK2" t="n">
         <v>78</v>
       </c>
-      <c r="MK2" t="n">
+      <c r="ML2" t="n">
         <v>2</v>
       </c>
-      <c r="ML2" t="n">
+      <c r="MM2" t="n">
         <v>250</v>
       </c>
-      <c r="MM2" t="n">
+      <c r="MN2" t="n">
         <v>228</v>
       </c>
-      <c r="MN2" t="n">
+      <c r="MO2" t="n">
         <v>109</v>
       </c>
-      <c r="MO2" t="n">
+      <c r="MP2" t="n">
         <v>2044</v>
       </c>
-      <c r="MP2" t="n">
+      <c r="MQ2" t="n">
         <v>28</v>
       </c>
-      <c r="MQ2" t="n">
+      <c r="MR2" t="n">
         <v>14</v>
       </c>
-      <c r="MR2" t="n">
+      <c r="MS2" t="n">
         <v>85</v>
       </c>
-      <c r="MS2" t="n">
+      <c r="MT2" t="n">
         <v>58</v>
       </c>
-      <c r="MT2" t="n">
+      <c r="MU2" t="n">
         <v>364</v>
       </c>
-      <c r="MU2" t="n">
+      <c r="MV2" t="n">
         <v>220</v>
       </c>
-      <c r="MV2" t="n">
+      <c r="MW2" t="n">
         <v>42</v>
       </c>
-      <c r="MW2" t="n">
+      <c r="MX2" t="n">
         <v>2</v>
       </c>
-      <c r="MX2" t="n">
+      <c r="MY2" t="n">
         <v>4</v>
       </c>
-      <c r="MY2" t="n">
+      <c r="MZ2" t="n">
         <v>77</v>
       </c>
-      <c r="MZ2" t="n">
+      <c r="NA2" t="n">
         <v>136</v>
       </c>
-      <c r="NA2" t="n">
+      <c r="NB2" t="n">
         <v>134</v>
       </c>
-      <c r="NB2" t="n">
+      <c r="NC2" t="n">
         <v>885</v>
       </c>
-      <c r="NC2" t="n">
+      <c r="ND2" t="n">
         <v>10</v>
       </c>
-      <c r="ND2" t="n">
+      <c r="NE2" t="n">
         <v>55</v>
       </c>
-      <c r="NE2" t="n">
+      <c r="NF2" t="n">
         <v>26</v>
       </c>
-      <c r="NF2" t="n">
+      <c r="NG2" t="n">
         <v>2702</v>
       </c>
-      <c r="NG2" t="n">
+      <c r="NH2" t="n">
         <v>17</v>
       </c>
-      <c r="NH2" t="n">
+      <c r="NI2" t="n">
         <v>4</v>
       </c>
-      <c r="NI2" t="n">
+      <c r="NJ2" t="n">
         <v>10</v>
       </c>
-      <c r="NJ2" t="n">
+      <c r="NK2" t="n">
         <v>278</v>
       </c>
-      <c r="NK2" t="n">
+      <c r="NL2" t="n">
         <v>25</v>
       </c>
-      <c r="NL2" t="n">
+      <c r="NM2" t="n">
         <v>546</v>
       </c>
-      <c r="NM2" t="n">
+      <c r="NN2" t="n">
         <v>598</v>
       </c>
-      <c r="NN2" t="n">
+      <c r="NO2" t="n">
         <v>67</v>
       </c>
-      <c r="NO2" t="n">
+      <c r="NP2" t="n">
         <v>8</v>
       </c>
-      <c r="NP2" t="n">
+      <c r="NQ2" t="n">
         <v>5009</v>
       </c>
-      <c r="NQ2" t="n">
+      <c r="NR2" t="n">
         <v>118</v>
       </c>
-      <c r="NR2" t="n">
+      <c r="NS2" t="n">
         <v>12</v>
       </c>
-      <c r="NS2" t="n">
+      <c r="NT2" t="n">
         <v>210</v>
       </c>
-      <c r="NT2" t="n">
+      <c r="NU2" t="n">
         <v>14</v>
       </c>
-      <c r="NU2" t="n">
+      <c r="NV2" t="n">
         <v>134</v>
       </c>
-      <c r="NV2" t="n">
+      <c r="NW2" t="n">
         <v>78</v>
       </c>
-      <c r="NW2" t="n">
+      <c r="NX2" t="n">
         <v>174</v>
       </c>
-      <c r="NX2" t="n">
+      <c r="NY2" t="n">
         <v>42</v>
       </c>
-      <c r="NY2" t="n">
+      <c r="NZ2" t="n">
         <v>142</v>
       </c>
-      <c r="NZ2" t="n">
+      <c r="OA2" t="n">
         <v>128</v>
       </c>
-      <c r="OA2" t="n">
+      <c r="OB2" t="n">
         <v>104</v>
       </c>
-      <c r="OB2" t="n">
+      <c r="OC2" t="n">
         <v>492</v>
       </c>
-      <c r="OC2" t="n">
+      <c r="OD2" t="n">
         <v>28</v>
       </c>
-      <c r="OD2" t="n">
+      <c r="OE2" t="n">
         <v>37</v>
       </c>
-      <c r="OE2" t="n">
+      <c r="OF2" t="n">
         <v>336</v>
       </c>
-      <c r="OF2" t="n">
+      <c r="OG2" t="n">
         <v>2</v>
       </c>
-      <c r="OG2" t="n">
+      <c r="OH2" t="n">
         <v>49</v>
       </c>
-      <c r="OH2" t="n">
+      <c r="OI2" t="n">
         <v>2242</v>
       </c>
-      <c r="OI2" t="n">
+      <c r="OJ2" t="n">
         <v>245</v>
       </c>
-      <c r="OJ2" t="n">
+      <c r="OK2" t="n">
         <v>48</v>
       </c>
-      <c r="OK2" t="n">
+      <c r="OL2" t="n">
         <v>22</v>
       </c>
-      <c r="OL2" t="n">
+      <c r="OM2" t="n">
         <v>16</v>
       </c>
-      <c r="OM2" t="n">
+      <c r="ON2" t="n">
         <v>38</v>
       </c>
-      <c r="ON2" t="n">
+      <c r="OO2" t="n">
         <v>2</v>
       </c>
-      <c r="OO2" t="n">
+      <c r="OP2" t="n">
         <v>1181</v>
       </c>
-      <c r="OP2" t="n">
+      <c r="OQ2" t="n">
         <v>20</v>
       </c>
-      <c r="OQ2" t="n">
+      <c r="OR2" t="n">
         <v>2</v>
       </c>
-      <c r="OR2" t="n">
+      <c r="OS2" t="n">
         <v>292</v>
       </c>
-      <c r="OS2" t="n">
+      <c r="OT2" t="n">
         <v>113</v>
       </c>
-      <c r="OT2" t="n">
+      <c r="OU2" t="n">
         <v>3351</v>
       </c>
-      <c r="OU2" t="n">
+      <c r="OV2" t="n">
         <v>30</v>
       </c>
-      <c r="OV2" t="n">
+      <c r="OW2" t="n">
         <v>550</v>
       </c>
-      <c r="OW2" t="n">
+      <c r="OX2" t="n">
         <v>238</v>
       </c>
-      <c r="OX2" t="n">
+      <c r="OY2" t="n">
         <v>433</v>
       </c>
-      <c r="OY2" t="n">
+      <c r="OZ2" t="n">
         <v>566</v>
       </c>
-      <c r="OZ2" t="n">
+      <c r="PA2" t="n">
         <v>6</v>
       </c>
-      <c r="PA2" t="n">
+      <c r="PB2" t="n">
         <v>15</v>
       </c>
-      <c r="PB2" t="n">
+      <c r="PC2" t="n">
         <v>74</v>
       </c>
-      <c r="PC2" t="n">
+      <c r="PD2" t="n">
         <v>344</v>
       </c>
-      <c r="PD2" t="n">
+      <c r="PE2" t="n">
         <v>175</v>
       </c>
-      <c r="PE2" t="n">
+      <c r="PF2" t="n">
         <v>16</v>
       </c>
-      <c r="PF2" t="n">
+      <c r="PG2" t="n">
         <v>704</v>
       </c>
-      <c r="PG2" t="n">
+      <c r="PH2" t="n">
         <v>128</v>
       </c>
-      <c r="PH2" t="n">
+      <c r="PI2" t="n">
         <v>386</v>
       </c>
-      <c r="PI2" t="n">
+      <c r="PJ2" t="n">
         <v>1</v>
       </c>
-      <c r="PJ2" t="n">
+      <c r="PK2" t="n">
         <v>228</v>
       </c>
-      <c r="PK2" t="n">
+      <c r="PL2" t="n">
         <v>148</v>
       </c>
-      <c r="PL2" t="n">
+      <c r="PM2" t="n">
         <v>223</v>
       </c>
-      <c r="PM2" t="n">
+      <c r="PN2" t="n">
         <v>57</v>
-      </c>
-      <c r="PN2" t="n">
-        <v>6</v>
       </c>
       <c r="PO2" t="n">
         <v>6</v>
       </c>
       <c r="PP2" t="n">
+        <v>6</v>
+      </c>
+      <c r="PQ2" t="n">
         <v>98</v>
       </c>
-      <c r="PQ2" t="n">
+      <c r="PR2" t="n">
         <v>88</v>
-      </c>
-      <c r="PR2" t="n">
-        <v>22</v>
       </c>
       <c r="PS2" t="n">
         <v>22</v>
       </c>
       <c r="PT2" t="n">
+        <v>22</v>
+      </c>
+      <c r="PU2" t="n">
         <v>668</v>
       </c>
-      <c r="PU2" t="n">
+      <c r="PV2" t="n">
         <v>106</v>
       </c>
-      <c r="PV2" t="n">
+      <c r="PW2" t="n">
         <v>22</v>
       </c>
-      <c r="PW2" t="n">
+      <c r="PX2" t="n">
         <v>1257</v>
       </c>
-      <c r="PX2" t="n">
+      <c r="PY2" t="n">
         <v>1891</v>
       </c>
-      <c r="PY2" t="n">
+      <c r="PZ2" t="n">
         <v>474</v>
       </c>
-      <c r="PZ2" t="n">
+      <c r="QA2" t="n">
         <v>60</v>
       </c>
-      <c r="QA2" t="n">
+      <c r="QB2" t="n">
         <v>345</v>
       </c>
-      <c r="QB2" t="n">
+      <c r="QC2" t="n">
         <v>10</v>
       </c>
-      <c r="QC2" t="n">
+      <c r="QD2" t="n">
         <v>226</v>
       </c>
-      <c r="QD2" t="n">
+      <c r="QE2" t="n">
         <v>270</v>
       </c>
-      <c r="QE2" t="n">
+      <c r="QF2" t="n">
         <v>12</v>
       </c>
-      <c r="QF2" t="n">
+      <c r="QG2" t="n">
         <v>425</v>
       </c>
-      <c r="QG2" t="n">
+      <c r="QH2" t="n">
         <v>124</v>
       </c>
-      <c r="QH2" t="n">
+      <c r="QI2" t="n">
         <v>96</v>
       </c>
-      <c r="QI2" t="n">
+      <c r="QJ2" t="n">
         <v>80</v>
       </c>
-      <c r="QJ2" t="n">
+      <c r="QK2" t="n">
         <v>1</v>
       </c>
-      <c r="QK2" t="n">
+      <c r="QL2" t="n">
         <v>396</v>
       </c>
-      <c r="QL2" t="n">
+      <c r="QM2" t="n">
         <v>683</v>
       </c>
-      <c r="QM2" t="n">
+      <c r="QN2" t="n">
         <v>24</v>
       </c>
-      <c r="QN2" t="n">
+      <c r="QO2" t="n">
         <v>441</v>
       </c>
-      <c r="QO2" t="n">
+      <c r="QP2" t="n">
         <v>77</v>
       </c>
-      <c r="QP2" t="n">
+      <c r="QQ2" t="n">
         <v>74</v>
       </c>
-      <c r="QQ2" t="n">
+      <c r="QR2" t="n">
         <v>34</v>
       </c>
-      <c r="QR2" t="n">
+      <c r="QS2" t="n">
         <v>46</v>
       </c>
-      <c r="QS2" t="n">
+      <c r="QT2" t="n">
         <v>7</v>
       </c>
-      <c r="QT2" t="n">
+      <c r="QU2" t="n">
         <v>57</v>
       </c>
-      <c r="QU2" t="n">
+      <c r="QV2" t="n">
         <v>604</v>
       </c>
-      <c r="QV2" t="n">
+      <c r="QW2" t="n">
         <v>28</v>
       </c>
-      <c r="QW2" t="n">
+      <c r="QX2" t="n">
         <v>2203</v>
       </c>
-      <c r="QX2" t="n">
+      <c r="QY2" t="n">
         <v>394</v>
       </c>
-      <c r="QY2" t="n">
+      <c r="QZ2" t="n">
         <v>78</v>
       </c>
-      <c r="QZ2" t="n">
+      <c r="RA2" t="n">
         <v>321</v>
       </c>
-      <c r="RA2" t="n">
+      <c r="RB2" t="n">
         <v>16</v>
       </c>
-      <c r="RB2" t="n">
+      <c r="RC2" t="n">
         <v>51</v>
       </c>
-      <c r="RC2" t="n">
+      <c r="RD2" t="n">
         <v>200</v>
       </c>
-      <c r="RD2" t="n">
+      <c r="RE2" t="n">
         <v>38</v>
       </c>
-      <c r="RE2" t="n">
+      <c r="RF2" t="n">
         <v>554</v>
       </c>
-      <c r="RF2" t="n">
+      <c r="RG2" t="n">
         <v>36</v>
       </c>
-      <c r="RG2" t="n">
+      <c r="RH2" t="n">
         <v>26</v>
       </c>
-      <c r="RH2" t="n">
+      <c r="RI2" t="n">
         <v>312</v>
       </c>
-      <c r="RI2" t="n">
+      <c r="RJ2" t="n">
         <v>289</v>
       </c>
-      <c r="RJ2" t="n">
+      <c r="RK2" t="n">
         <v>34</v>
       </c>
-      <c r="RK2" t="n">
+      <c r="RL2" t="n">
         <v>276</v>
       </c>
-      <c r="RL2" t="n">
+      <c r="RM2" t="n">
         <v>84</v>
       </c>
-      <c r="RM2" t="n">
+      <c r="RN2" t="n">
         <v>71</v>
       </c>
-      <c r="RN2" t="n">
+      <c r="RO2" t="n">
         <v>182</v>
       </c>
-      <c r="RO2" t="n">
+      <c r="RP2" t="n">
         <v>170</v>
       </c>
-      <c r="RP2" t="n">
+      <c r="RQ2" t="n">
         <v>140</v>
       </c>
-      <c r="RQ2" t="n">
+      <c r="RR2" t="n">
         <v>71</v>
       </c>
-      <c r="RR2" t="n">
+      <c r="RS2" t="n">
         <v>721</v>
       </c>
-      <c r="RS2" t="n">
+      <c r="RT2" t="n">
         <v>234</v>
       </c>
-      <c r="RT2" t="n">
+      <c r="RU2" t="n">
         <v>8</v>
       </c>
-      <c r="RU2" t="n">
+      <c r="RV2" t="n">
         <v>130</v>
       </c>
-      <c r="RV2" t="n">
+      <c r="RW2" t="n">
         <v>71</v>
       </c>
-      <c r="RW2" t="n">
+      <c r="RX2" t="n">
         <v>234</v>
       </c>
-      <c r="RX2" t="n">
+      <c r="RY2" t="n">
         <v>94</v>
       </c>
-      <c r="RY2" t="n">
+      <c r="RZ2" t="n">
         <v>860</v>
       </c>
-      <c r="RZ2" t="n">
+      <c r="SA2" t="n">
         <v>1818</v>
       </c>
-      <c r="SA2" t="n">
+      <c r="SB2" t="n">
         <v>20</v>
       </c>
-      <c r="SB2" t="n">
+      <c r="SC2" t="n">
         <v>1626</v>
       </c>
-      <c r="SC2" t="n">
+      <c r="SD2" t="n">
         <v>70</v>
       </c>
-      <c r="SD2" t="n">
+      <c r="SE2" t="n">
         <v>2</v>
       </c>
-      <c r="SE2" t="n">
+      <c r="SF2" t="n">
         <v>48</v>
       </c>
-      <c r="SF2" t="n">
+      <c r="SG2" t="n">
         <v>10</v>
       </c>
-      <c r="SG2" t="n">
+      <c r="SH2" t="n">
         <v>58</v>
       </c>
-      <c r="SH2" t="n">
+      <c r="SI2" t="n">
         <v>11</v>
       </c>
-      <c r="SI2" t="n">
+      <c r="SJ2" t="n">
         <v>74</v>
       </c>
-      <c r="SJ2" t="n">
+      <c r="SK2" t="n">
         <v>429</v>
       </c>
-      <c r="SK2" t="n">
+      <c r="SL2" t="n">
         <v>24</v>
       </c>
-      <c r="SL2" t="n">
+      <c r="SM2" t="n">
         <v>136</v>
       </c>
-      <c r="SM2" t="n">
+      <c r="SN2" t="n">
         <v>140</v>
       </c>
-      <c r="SN2" t="n">
+      <c r="SO2" t="n">
         <v>452</v>
       </c>
-      <c r="SO2" t="n">
+      <c r="SP2" t="n">
         <v>84</v>
       </c>
-      <c r="SP2" t="n">
+      <c r="SQ2" t="n">
         <v>7900</v>
       </c>
-      <c r="SQ2" t="n">
+      <c r="SR2" t="n">
         <v>254</v>
       </c>
-      <c r="SR2" t="n">
+      <c r="SS2" t="n">
         <v>208</v>
       </c>
-      <c r="SS2" t="n">
+      <c r="ST2" t="n">
         <v>1195</v>
       </c>
-      <c r="ST2" t="n">
+      <c r="SU2" t="n">
         <v>66</v>
       </c>
-      <c r="SU2" t="n">
+      <c r="SV2" t="n">
         <v>136</v>
       </c>
-      <c r="SV2" t="n">
+      <c r="SW2" t="n">
         <v>196</v>
       </c>
-      <c r="SW2" t="n">
+      <c r="SX2" t="n">
         <v>399</v>
       </c>
-      <c r="SX2" t="n">
+      <c r="SY2" t="n">
         <v>3572</v>
       </c>
-      <c r="SY2" t="n">
+      <c r="SZ2" t="n">
         <v>8</v>
       </c>
-      <c r="SZ2" t="n">
+      <c r="TA2" t="n">
         <v>315</v>
       </c>
-      <c r="TA2" t="n">
+      <c r="TB2" t="n">
         <v>4724</v>
       </c>
-      <c r="TB2" t="n">
+      <c r="TC2" t="n">
         <v>1114</v>
       </c>
-      <c r="TC2" t="n">
+      <c r="TD2" t="n">
         <v>1</v>
       </c>
-      <c r="TD2" t="n">
+      <c r="TE2" t="n">
         <v>8</v>
       </c>
-      <c r="TE2" t="n">
+      <c r="TF2" t="n">
         <v>277</v>
       </c>
-      <c r="TF2" t="n">
+      <c r="TG2" t="n">
         <v>26</v>
       </c>
-      <c r="TG2" t="n">
+      <c r="TH2" t="n">
         <v>2</v>
       </c>
-      <c r="TH2" t="n">
+      <c r="TI2" t="n">
         <v>4</v>
       </c>
-      <c r="TI2" t="n">
+      <c r="TJ2" t="n">
         <v>1</v>
       </c>
-      <c r="TJ2" t="n">
+      <c r="TK2" t="n">
         <v>66</v>
       </c>
-      <c r="TK2" t="n">
+      <c r="TL2" t="n">
         <v>6</v>
       </c>
-      <c r="TL2" t="n">
+      <c r="TM2" t="n">
         <v>124</v>
       </c>
-      <c r="TM2" t="n">
+      <c r="TN2" t="n">
         <v>24</v>
       </c>
-      <c r="TN2" t="n">
+      <c r="TO2" t="n">
         <v>568</v>
       </c>
-      <c r="TO2" t="n">
+      <c r="TP2" t="n">
         <v>775</v>
       </c>
-      <c r="TP2" t="n">
+      <c r="TQ2" t="n">
         <v>16</v>
       </c>
-      <c r="TQ2" t="n">
+      <c r="TR2" t="n">
         <v>96</v>
       </c>
-      <c r="TR2" t="n">
+      <c r="TS2" t="n">
         <v>150</v>
       </c>
-      <c r="TS2" t="n">
+      <c r="TT2" t="n">
         <v>35</v>
       </c>
-      <c r="TT2" t="n">
+      <c r="TU2" t="n">
         <v>982</v>
       </c>
-      <c r="TU2" t="n">
+      <c r="TV2" t="n">
         <v>118</v>
       </c>
-      <c r="TV2" t="n">
+      <c r="TW2" t="n">
         <v>511</v>
       </c>
-      <c r="TW2" t="n">
+      <c r="TX2" t="n">
         <v>2328</v>
       </c>
-      <c r="TX2" t="n">
+      <c r="TY2" t="n">
         <v>4330</v>
       </c>
-      <c r="TY2" t="n">
+      <c r="TZ2" t="n">
         <v>848</v>
       </c>
-      <c r="TZ2" t="n">
+      <c r="UA2" t="n">
         <v>2903</v>
       </c>
-      <c r="UA2" t="n">
+      <c r="UB2" t="n">
         <v>36</v>
       </c>
-      <c r="UB2" t="n">
+      <c r="UC2" t="n">
         <v>26</v>
       </c>
-      <c r="UC2" t="n">
+      <c r="UD2" t="n">
         <v>375</v>
       </c>
-      <c r="UD2" t="n">
+      <c r="UE2" t="n">
         <v>842</v>
       </c>
-      <c r="UE2" t="n">
+      <c r="UF2" t="n">
         <v>256</v>
       </c>
-      <c r="UF2" t="n">
+      <c r="UG2" t="n">
         <v>666</v>
       </c>
-      <c r="UG2" t="n">
+      <c r="UH2" t="n">
         <v>388</v>
       </c>
-      <c r="UH2" t="n">
+      <c r="UI2" t="n">
         <v>294</v>
       </c>
-      <c r="UI2" t="n">
+      <c r="UJ2" t="n">
         <v>1478</v>
-      </c>
-      <c r="UJ2" t="n">
-        <v>12</v>
       </c>
       <c r="UK2" t="n">
         <v>12</v>
       </c>
       <c r="UL2" t="n">
+        <v>12</v>
+      </c>
+      <c r="UM2" t="n">
         <v>28</v>
       </c>
-      <c r="UM2" t="n">
+      <c r="UN2" t="n">
         <v>134</v>
       </c>
-      <c r="UN2" t="n">
+      <c r="UO2" t="n">
         <v>422</v>
       </c>
-      <c r="UO2" t="n">
+      <c r="UP2" t="n">
         <v>50</v>
       </c>
-      <c r="UP2" t="n">
+      <c r="UQ2" t="n">
         <v>106</v>
       </c>
-      <c r="UQ2" t="n">
+      <c r="UR2" t="n">
         <v>3832</v>
       </c>
-      <c r="UR2" t="n">
+      <c r="US2" t="n">
         <v>13696</v>
       </c>
-      <c r="US2" t="n">
+      <c r="UT2" t="n">
         <v>338</v>
       </c>
-      <c r="UT2" t="n">
+      <c r="UU2" t="n">
         <v>252</v>
       </c>
-      <c r="UU2" t="n">
+      <c r="UV2" t="n">
         <v>68</v>
       </c>
-      <c r="UV2" t="n">
+      <c r="UW2" t="n">
         <v>32</v>
       </c>
-      <c r="UW2" t="n">
+      <c r="UX2" t="n">
         <v>71</v>
       </c>
-      <c r="UX2" t="n">
+      <c r="UY2" t="n">
         <v>434</v>
       </c>
-      <c r="UY2" t="n">
+      <c r="UZ2" t="n">
         <v>59</v>
       </c>
-      <c r="UZ2" t="n">
+      <c r="VA2" t="n">
         <v>56</v>
       </c>
-      <c r="VA2" t="n">
+      <c r="VB2" t="n">
         <v>6</v>
       </c>
-      <c r="VB2" t="n">
+      <c r="VC2" t="n">
         <v>326</v>
       </c>
-      <c r="VC2" t="n">
+      <c r="VD2" t="n">
         <v>6878</v>
       </c>
-      <c r="VD2" t="n">
+      <c r="VE2" t="n">
         <v>416</v>
       </c>
-      <c r="VE2" t="n">
+      <c r="VF2" t="n">
         <v>40</v>
       </c>
-      <c r="VF2" t="n">
+      <c r="VG2" t="n">
         <v>144</v>
       </c>
-      <c r="VG2" t="n">
+      <c r="VH2" t="n">
         <v>7</v>
       </c>
-      <c r="VH2" t="n">
+      <c r="VI2" t="n">
         <v>212</v>
       </c>
-      <c r="VI2" t="n">
+      <c r="VJ2" t="n">
         <v>322</v>
       </c>
-      <c r="VJ2" t="n">
+      <c r="VK2" t="n">
         <v>572</v>
       </c>
-      <c r="VK2" t="n">
+      <c r="VL2" t="n">
         <v>121</v>
       </c>
-      <c r="VL2" t="n">
+      <c r="VM2" t="n">
         <v>20</v>
       </c>
-      <c r="VM2" t="n">
+      <c r="VN2" t="n">
         <v>4</v>
       </c>
-      <c r="VN2" t="n">
+      <c r="VO2" t="n">
         <v>781</v>
       </c>
-      <c r="VO2" t="n">
+      <c r="VP2" t="n">
         <v>58</v>
       </c>
-      <c r="VP2" t="n">
+      <c r="VQ2" t="n">
         <v>153</v>
       </c>
-      <c r="VQ2" t="n">
+      <c r="VR2" t="n">
         <v>34</v>
       </c>
-      <c r="VR2" t="n">
+      <c r="VS2" t="n">
         <v>6462</v>
       </c>
-      <c r="VS2" t="n">
+      <c r="VT2" t="n">
         <v>38</v>
       </c>
-      <c r="VT2" t="n">
+      <c r="VU2" t="n">
         <v>2620</v>
       </c>
-      <c r="VU2" t="n">
+      <c r="VV2" t="n">
         <v>39</v>
       </c>
-      <c r="VV2" t="n">
+      <c r="VW2" t="n">
         <v>132</v>
       </c>
-      <c r="VW2" t="n">
+      <c r="VX2" t="n">
         <v>207</v>
       </c>
-      <c r="VX2" t="n">
+      <c r="VY2" t="n">
         <v>129</v>
       </c>
-      <c r="VY2" t="n">
+      <c r="VZ2" t="n">
         <v>38</v>
       </c>
-      <c r="VZ2" t="n">
+      <c r="WA2" t="n">
         <v>248</v>
       </c>
-      <c r="WA2" t="n">
+      <c r="WB2" t="n">
         <v>576</v>
       </c>
-      <c r="WB2" t="n">
+      <c r="WC2" t="n">
         <v>336</v>
       </c>
-      <c r="WC2" t="n">
+      <c r="WD2" t="n">
         <v>404</v>
       </c>
-      <c r="WD2" t="n">
+      <c r="WE2" t="n">
         <v>43</v>
       </c>
-      <c r="WE2" t="n">
+      <c r="WF2" t="n">
         <v>73</v>
       </c>
-      <c r="WF2" t="n">
+      <c r="WG2" t="n">
         <v>78</v>
       </c>
-      <c r="WG2" t="n">
+      <c r="WH2" t="n">
         <v>548</v>
       </c>
-      <c r="WH2" t="n">
+      <c r="WI2" t="n">
         <v>202</v>
       </c>
-      <c r="WI2" t="n">
+      <c r="WJ2" t="n">
         <v>270</v>
       </c>
-      <c r="WJ2" t="n">
+      <c r="WK2" t="n">
         <v>3021</v>
       </c>
-      <c r="WK2" t="n">
+      <c r="WL2" t="n">
         <v>16</v>
       </c>
-      <c r="WL2" t="n">
+      <c r="WM2" t="n">
         <v>37286</v>
       </c>
-      <c r="WM2" t="n">
+      <c r="WN2" t="n">
         <v>1794</v>
       </c>
-      <c r="WN2" t="n">
+      <c r="WO2" t="n">
         <v>279</v>
       </c>
-      <c r="WO2" t="n">
+      <c r="WP2" t="n">
         <v>3313</v>
       </c>
-      <c r="WP2" t="n">
+      <c r="WQ2" t="n">
         <v>32</v>
       </c>
-      <c r="WQ2" t="n">
+      <c r="WR2" t="n">
         <v>252</v>
       </c>
-      <c r="WR2" t="n">
+      <c r="WS2" t="n">
         <v>1120</v>
       </c>
-      <c r="WS2" t="n">
+      <c r="WT2" t="n">
         <v>4</v>
       </c>
-      <c r="WT2" t="n">
+      <c r="WU2" t="n">
         <v>38</v>
       </c>
-      <c r="WU2" t="n">
+      <c r="WV2" t="n">
         <v>3607</v>
       </c>
-      <c r="WV2" t="n">
+      <c r="WW2" t="n">
         <v>41</v>
       </c>
-      <c r="WW2" t="n">
+      <c r="WX2" t="n">
         <v>503</v>
       </c>
-      <c r="WX2" t="n">
+      <c r="WY2" t="n">
         <v>24</v>
       </c>
-      <c r="WY2" t="n">
+      <c r="WZ2" t="n">
         <v>385</v>
       </c>
-      <c r="WZ2" t="n">
+      <c r="XA2" t="n">
         <v>2</v>
       </c>
-      <c r="XA2" t="n">
+      <c r="XB2" t="n">
         <v>108</v>
       </c>
-      <c r="XB2" t="n">
+      <c r="XC2" t="n">
         <v>160</v>
       </c>
-      <c r="XC2" t="n">
+      <c r="XD2" t="n">
         <v>429</v>
       </c>
-      <c r="XD2" t="n">
+      <c r="XE2" t="n">
         <v>130</v>
       </c>
-      <c r="XE2" t="n">
+      <c r="XF2" t="n">
         <v>100</v>
       </c>
-      <c r="XF2" t="n">
+      <c r="XG2" t="n">
         <v>768</v>
       </c>
-      <c r="XG2" t="n">
+      <c r="XH2" t="n">
         <v>4</v>
       </c>
-      <c r="XH2" t="n">
+      <c r="XI2" t="n">
         <v>356</v>
       </c>
-      <c r="XI2" t="n">
+      <c r="XJ2" t="n">
         <v>852</v>
       </c>
-      <c r="XJ2" t="n">
+      <c r="XK2" t="n">
         <v>24</v>
       </c>
-      <c r="XK2" t="n">
+      <c r="XL2" t="n">
         <v>57</v>
       </c>
-      <c r="XL2" t="n">
+      <c r="XM2" t="n">
         <v>2</v>
       </c>
-      <c r="XM2" t="n">
+      <c r="XN2" t="n">
         <v>62</v>
       </c>
-      <c r="XN2" t="n">
+      <c r="XO2" t="n">
         <v>408</v>
       </c>
-      <c r="XO2" t="n">
+      <c r="XP2" t="n">
         <v>82</v>
       </c>
-      <c r="XP2" t="n">
+      <c r="XQ2" t="n">
         <v>19</v>
       </c>
-      <c r="XQ2" t="n">
+      <c r="XR2" t="n">
         <v>58</v>
       </c>
-      <c r="XR2" t="n">
+      <c r="XS2" t="n">
         <v>77</v>
       </c>
-      <c r="XS2" t="n">
+      <c r="XT2" t="n">
         <v>20</v>
       </c>
-      <c r="XT2" t="n">
+      <c r="XU2" t="n">
         <v>131</v>
       </c>
-      <c r="XU2" t="n">
+      <c r="XV2" t="n">
         <v>20</v>
       </c>
-      <c r="XV2" t="n">
+      <c r="XW2" t="n">
         <v>222</v>
       </c>
-      <c r="XW2" t="n">
+      <c r="XX2" t="n">
         <v>16</v>
       </c>
-      <c r="XX2" t="n">
+      <c r="XY2" t="n">
         <v>1</v>
       </c>
-      <c r="XY2" t="n">
+      <c r="XZ2" t="n">
         <v>272</v>
       </c>
-      <c r="XZ2" t="n">
+      <c r="YA2" t="n">
         <v>9</v>
       </c>
-      <c r="YA2" t="n">
+      <c r="YB2" t="n">
         <v>1</v>
       </c>
-      <c r="YB2" t="n">
+      <c r="YC2" t="n">
         <v>2</v>
       </c>
-      <c r="YC2" t="n">
+      <c r="YD2" t="n">
         <v>19</v>
       </c>
-      <c r="YD2" t="n">
+      <c r="YE2" t="n">
         <v>68</v>
       </c>
-      <c r="YE2" t="n">
+      <c r="YF2" t="n">
         <v>174</v>
       </c>
-      <c r="YF2" t="n">
+      <c r="YG2" t="n">
         <v>1143</v>
       </c>
-      <c r="YG2" t="n">
+      <c r="YH2" t="n">
         <v>22</v>
       </c>
-      <c r="YH2" t="n">
+      <c r="YI2" t="n">
         <v>20</v>
       </c>
-      <c r="YI2" t="n">
+      <c r="YJ2" t="n">
         <v>56</v>
       </c>
-      <c r="YJ2" t="n">
+      <c r="YK2" t="n">
         <v>20</v>
       </c>
-      <c r="YK2" t="n">
+      <c r="YL2" t="n">
         <v>90</v>
       </c>
-      <c r="YL2" t="n">
+      <c r="YM2" t="n">
         <v>6</v>
       </c>
-      <c r="YM2" t="n">
+      <c r="YN2" t="n">
         <v>1519</v>
       </c>
-      <c r="YN2" t="n">
+      <c r="YO2" t="n">
         <v>2634</v>
       </c>
-      <c r="YO2" t="n">
+      <c r="YP2" t="n">
         <v>39</v>
       </c>
-      <c r="YP2" t="n">
+      <c r="YQ2" t="n">
         <v>60</v>
       </c>
-      <c r="YQ2" t="n">
+      <c r="YR2" t="n">
         <v>19</v>
       </c>
-      <c r="YR2" t="n">
+      <c r="YS2" t="n">
         <v>121</v>
       </c>
-      <c r="YS2" t="n">
+      <c r="YT2" t="n">
         <v>20</v>
       </c>
-      <c r="YT2" t="n">
+      <c r="YU2" t="n">
         <v>89</v>
       </c>
-      <c r="YU2" t="n">
+      <c r="YV2" t="n">
         <v>236</v>
       </c>
-      <c r="YV2" t="n">
+      <c r="YW2" t="n">
         <v>9426</v>
       </c>
-      <c r="YW2" t="n">
+      <c r="YX2" t="n">
         <v>380</v>
       </c>
-      <c r="YX2" t="n">
+      <c r="YY2" t="n">
         <v>456</v>
       </c>
-      <c r="YY2" t="n">
+      <c r="YZ2" t="n">
         <v>38</v>
       </c>
-      <c r="YZ2" t="n">
+      <c r="ZA2" t="n">
         <v>370</v>
       </c>
-      <c r="ZA2" t="n">
+      <c r="ZB2" t="n">
         <v>928</v>
       </c>
-      <c r="ZB2" t="n">
+      <c r="ZC2" t="n">
         <v>12</v>
       </c>
-      <c r="ZC2" t="n">
+      <c r="ZD2" t="n">
         <v>3</v>
       </c>
-      <c r="ZD2" t="n">
+      <c r="ZE2" t="n">
         <v>358</v>
       </c>
-      <c r="ZE2" t="n">
+      <c r="ZF2" t="n">
         <v>160</v>
       </c>
-      <c r="ZF2" t="n">
+      <c r="ZG2" t="n">
         <v>2</v>
       </c>
-      <c r="ZG2" t="n">
+      <c r="ZH2" t="n">
         <v>26</v>
       </c>
-      <c r="ZH2" t="n">
+      <c r="ZI2" t="n">
         <v>788</v>
       </c>
-      <c r="ZI2" t="n">
+      <c r="ZJ2" t="n">
         <v>1386</v>
       </c>
-      <c r="ZJ2" t="n">
+      <c r="ZK2" t="n">
         <v>46</v>
       </c>
-      <c r="ZK2" t="n">
+      <c r="ZL2" t="n">
         <v>4</v>
       </c>
-      <c r="ZL2" t="n">
+      <c r="ZM2" t="n">
         <v>504</v>
       </c>
-      <c r="ZM2" t="n">
+      <c r="ZN2" t="n">
         <v>600</v>
       </c>
-      <c r="ZN2" t="n">
+      <c r="ZO2" t="n">
         <v>25</v>
       </c>
-      <c r="ZO2" t="n">
+      <c r="ZP2" t="n">
         <v>304</v>
       </c>
-      <c r="ZP2" t="n">
+      <c r="ZQ2" t="n">
         <v>382</v>
       </c>
-      <c r="ZQ2" t="n">
+      <c r="ZR2" t="n">
         <v>16</v>
       </c>
-      <c r="ZR2" t="n">
+      <c r="ZS2" t="n">
         <v>804</v>
       </c>
-      <c r="ZS2" t="n">
+      <c r="ZT2" t="n">
         <v>9</v>
       </c>
-      <c r="ZT2" t="n">
+      <c r="ZU2" t="n">
         <v>250</v>
       </c>
-      <c r="ZU2" t="n">
+      <c r="ZV2" t="n">
         <v>848</v>
       </c>
-      <c r="ZV2" t="n">
+      <c r="ZW2" t="n">
         <v>50</v>
       </c>
-      <c r="ZW2" t="n">
+      <c r="ZX2" t="n">
         <v>3</v>
       </c>
-      <c r="ZX2" t="n">
+      <c r="ZY2" t="n">
         <v>17</v>
       </c>
-      <c r="ZY2" t="n">
+      <c r="ZZ2" t="n">
         <v>152</v>
       </c>
-      <c r="ZZ2" t="n">
+      <c r="AAA2" t="n">
         <v>396</v>
       </c>
-      <c r="AAA2" t="n">
+      <c r="AAB2" t="n">
         <v>172</v>
       </c>
-      <c r="AAB2" t="n">
+      <c r="AAC2" t="n">
         <v>250</v>
       </c>
-      <c r="AAC2" t="n">
+      <c r="AAD2" t="n">
         <v>9</v>
       </c>
-      <c r="AAD2" t="n">
+      <c r="AAE2" t="n">
         <v>16</v>
       </c>
-      <c r="AAE2" t="n">
+      <c r="AAF2" t="n">
         <v>34</v>
       </c>
-      <c r="AAF2" t="n">
+      <c r="AAG2" t="n">
         <v>11</v>
       </c>
-      <c r="AAG2" t="n">
+      <c r="AAH2" t="n">
         <v>54</v>
       </c>
-      <c r="AAH2" t="n">
+      <c r="AAI2" t="n">
         <v>359</v>
       </c>
-      <c r="AAI2" t="n">
+      <c r="AAJ2" t="n">
         <v>637</v>
       </c>
-      <c r="AAJ2" t="n">
+      <c r="AAK2" t="n">
         <v>64</v>
       </c>
-      <c r="AAK2" t="n">
+      <c r="AAL2" t="n">
         <v>56</v>
       </c>
-      <c r="AAL2" t="n">
+      <c r="AAM2" t="n">
         <v>120</v>
       </c>
-      <c r="AAM2" t="n">
+      <c r="AAN2" t="n">
         <v>618</v>
       </c>
-      <c r="AAN2" t="n">
+      <c r="AAO2" t="n">
         <v>4002</v>
       </c>
-      <c r="AAO2" t="n">
+      <c r="AAP2" t="n">
         <v>16</v>
       </c>
-      <c r="AAP2" t="n">
+      <c r="AAQ2" t="n">
         <v>110</v>
       </c>
-      <c r="AAQ2" t="n">
+      <c r="AAR2" t="n">
         <v>38</v>
       </c>
-      <c r="AAR2" t="n">
+      <c r="AAS2" t="n">
         <v>30</v>
       </c>
-      <c r="AAS2" t="n">
+      <c r="AAT2" t="n">
         <v>18</v>
       </c>
-      <c r="AAT2" t="n">
+      <c r="AAU2" t="n">
         <v>53</v>
       </c>
-      <c r="AAU2" t="n">
+      <c r="AAV2" t="n">
         <v>626</v>
       </c>
-      <c r="AAV2" t="n">
+      <c r="AAW2" t="n">
         <v>52</v>
       </c>
-      <c r="AAW2" t="n">
+      <c r="AAX2" t="n">
         <v>36</v>
       </c>
-      <c r="AAX2" t="n">
+      <c r="AAY2" t="n">
         <v>1170</v>
       </c>
-      <c r="AAY2" t="n">
+      <c r="AAZ2" t="n">
         <v>6</v>
       </c>
-      <c r="AAZ2" t="n">
+      <c r="ABA2" t="n">
         <v>25</v>
       </c>
-      <c r="ABA2" t="n">
+      <c r="ABB2" t="n">
         <v>148</v>
       </c>
-      <c r="ABB2" t="n">
+      <c r="ABC2" t="n">
         <v>96</v>
       </c>
-      <c r="ABC2" t="n">
+      <c r="ABD2" t="n">
         <v>3</v>
       </c>
-      <c r="ABD2" t="n">
+      <c r="ABE2" t="n">
         <v>42</v>
       </c>
-      <c r="ABE2" t="n">
+      <c r="ABF2" t="n">
         <v>32</v>
-      </c>
-      <c r="ABF2" t="n">
-        <v>286</v>
       </c>
       <c r="ABG2" t="n">
         <v>286</v>
       </c>
       <c r="ABH2" t="n">
+        <v>286</v>
+      </c>
+      <c r="ABI2" t="n">
         <v>146</v>
       </c>
-      <c r="ABI2" t="n">
+      <c r="ABJ2" t="n">
         <v>504</v>
       </c>
-      <c r="ABJ2" t="n">
+      <c r="ABK2" t="n">
         <v>14</v>
       </c>
-      <c r="ABK2" t="n">
+      <c r="ABL2" t="n">
         <v>336</v>
       </c>
-      <c r="ABL2" t="n">
+      <c r="ABM2" t="n">
         <v>25</v>
       </c>
-      <c r="ABM2" t="n">
+      <c r="ABN2" t="n">
         <v>148</v>
       </c>
-      <c r="ABN2" t="n">
+      <c r="ABO2" t="n">
         <v>86</v>
       </c>
-      <c r="ABO2" t="n">
+      <c r="ABP2" t="n">
         <v>9028</v>
       </c>
-      <c r="ABP2" t="n">
+      <c r="ABQ2" t="n">
         <v>86</v>
       </c>
-      <c r="ABQ2" t="n">
+      <c r="ABR2" t="n">
         <v>2</v>
       </c>
-      <c r="ABR2" t="n">
+      <c r="ABS2" t="n">
         <v>34</v>
       </c>
-      <c r="ABS2" t="n">
+      <c r="ABT2" t="n">
         <v>6</v>
       </c>
-      <c r="ABT2" t="n">
+      <c r="ABU2" t="n">
         <v>10</v>
       </c>
-      <c r="ABU2" t="n">
+      <c r="ABV2" t="n">
         <v>1665</v>
       </c>
-      <c r="ABV2" t="n">
+      <c r="ABW2" t="n">
         <v>51</v>
       </c>
-      <c r="ABW2" t="n">
+      <c r="ABX2" t="n">
         <v>144</v>
       </c>
-      <c r="ABX2" t="n">
+      <c r="ABY2" t="n">
         <v>263</v>
       </c>
-      <c r="ABY2" t="n">
+      <c r="ABZ2" t="n">
         <v>108</v>
       </c>
-      <c r="ABZ2" t="n">
+      <c r="ACA2" t="n">
         <v>238</v>
       </c>
-      <c r="ACA2" t="n">
+      <c r="ACB2" t="n">
         <v>478</v>
       </c>
-      <c r="ACB2" t="n">
+      <c r="ACC2" t="n">
         <v>1536</v>
       </c>
-      <c r="ACC2" t="n">
+      <c r="ACD2" t="n">
         <v>974</v>
       </c>
-      <c r="ACD2" t="n">
+      <c r="ACE2" t="n">
         <v>240</v>
       </c>
-      <c r="ACE2" t="n">
+      <c r="ACF2" t="n">
         <v>8</v>
       </c>
-      <c r="ACF2" t="n">
+      <c r="ACG2" t="n">
         <v>14</v>
       </c>
-      <c r="ACG2" t="n">
+      <c r="ACH2" t="n">
         <v>93</v>
       </c>
-      <c r="ACH2" t="n">
+      <c r="ACI2" t="n">
         <v>110</v>
       </c>
-      <c r="ACI2" t="n">
+      <c r="ACJ2" t="n">
         <v>57</v>
       </c>
-      <c r="ACJ2" t="n">
+      <c r="ACK2" t="n">
         <v>46</v>
       </c>
-      <c r="ACK2" t="n">
+      <c r="ACL2" t="n">
         <v>146</v>
       </c>
-      <c r="ACL2" t="n">
+      <c r="ACM2" t="n">
         <v>214</v>
       </c>
-      <c r="ACM2" t="n">
+      <c r="ACN2" t="n">
         <v>60</v>
       </c>
-      <c r="ACN2" t="n">
+      <c r="ACO2" t="n">
         <v>6</v>
       </c>
-      <c r="ACO2" t="n">
+      <c r="ACP2" t="n">
         <v>98</v>
       </c>
-      <c r="ACP2" t="n">
+      <c r="ACQ2" t="n">
         <v>134</v>
       </c>
-      <c r="ACQ2" t="n">
+      <c r="ACR2" t="n">
         <v>94</v>
       </c>
-      <c r="ACR2" t="n">
+      <c r="ACS2" t="n">
         <v>230</v>
       </c>
-      <c r="ACS2" t="n">
+      <c r="ACT2" t="n">
         <v>124</v>
       </c>
-      <c r="ACT2" t="n">
+      <c r="ACU2" t="n">
         <v>60</v>
       </c>
-      <c r="ACU2" t="n">
+      <c r="ACV2" t="n">
         <v>1298</v>
       </c>
-      <c r="ACV2" t="n">
+      <c r="ACW2" t="n">
         <v>30</v>
       </c>
-      <c r="ACW2" t="n">
+      <c r="ACX2" t="n">
         <v>10</v>
       </c>
-      <c r="ACX2" t="n">
+      <c r="ACY2" t="n">
         <v>92</v>
       </c>
-      <c r="ACY2" t="n">
+      <c r="ACZ2" t="n">
         <v>1151</v>
       </c>
-      <c r="ACZ2" t="n">
+      <c r="ADA2" t="n">
         <v>6</v>
       </c>
-      <c r="ADA2" t="n">
+      <c r="ADB2" t="n">
         <v>80</v>
       </c>
-      <c r="ADB2" t="n">
+      <c r="ADC2" t="n">
         <v>4</v>
       </c>
-      <c r="ADC2" t="n">
+      <c r="ADD2" t="n">
         <v>82</v>
       </c>
-      <c r="ADD2" t="n">
+      <c r="ADE2" t="n">
         <v>2610</v>
       </c>
-      <c r="ADE2" t="n">
+      <c r="ADF2" t="n">
         <v>324</v>
       </c>
-      <c r="ADF2" t="n">
+      <c r="ADG2" t="n">
         <v>1152</v>
       </c>
     </row>
